--- a/PV2 Documents/Solar PV Cost Evaluator-1.xlsx
+++ b/PV2 Documents/Solar PV Cost Evaluator-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkneifel\Desktop\PV2 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F25429A-B101-4816-8E4E-01434C6A4758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE45A3-7818-4AD9-824A-DFA00356F345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="495" windowWidth="17775" windowHeight="14085" tabRatio="859" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9975" yWindow="495" windowWidth="17775" windowHeight="14085" tabRatio="859" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Inputs - EX 1" sheetId="20" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="138">
   <si>
     <t>Year</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>Total Costs</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
   </si>
 </sst>
 </file>
@@ -2086,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0E24D1-0E82-4B48-9E6A-5E03FE5EA190}">
-  <dimension ref="A1:AD40"/>
+  <dimension ref="A1:AD48"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,23 +2100,28 @@
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.85546875" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
+    <col min="23" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.42578125" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.140625" customWidth="1"/>
     <col min="28" max="28" width="11.140625" customWidth="1"/>
+    <col min="29" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -4814,7 +4822,7 @@
         <v>-15527.146765596952</v>
       </c>
     </row>
-    <row r="33" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:30" x14ac:dyDescent="0.25">
       <c r="L33" s="8" t="s">
         <v>84</v>
       </c>
@@ -4845,7 +4853,7 @@
         <v>15791.204666096246</v>
       </c>
     </row>
-    <row r="34" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:30" x14ac:dyDescent="0.25">
       <c r="L34" s="8" t="s">
         <v>2</v>
       </c>
@@ -4874,7 +4882,7 @@
         <v>264.05790049929419</v>
       </c>
     </row>
-    <row r="35" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:30" x14ac:dyDescent="0.25">
       <c r="L35" s="8" t="s">
         <v>11</v>
       </c>
@@ -4884,7 +4892,7 @@
       <c r="N35" s="18"/>
       <c r="P35" s="14"/>
     </row>
-    <row r="36" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:30" x14ac:dyDescent="0.25">
       <c r="L36" s="8" t="s">
         <v>131</v>
       </c>
@@ -4893,7 +4901,7 @@
         <v>7950</v>
       </c>
     </row>
-    <row r="37" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:30" x14ac:dyDescent="0.25">
       <c r="L37" s="8" t="s">
         <v>132</v>
       </c>
@@ -4904,7 +4912,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:30" x14ac:dyDescent="0.25">
       <c r="L38" s="8" t="s">
         <v>133</v>
       </c>
@@ -4915,7 +4923,7 @@
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:30" x14ac:dyDescent="0.25">
       <c r="L39" s="8" t="s">
         <v>134</v>
       </c>
@@ -4924,7 +4932,7 @@
         <v>-42.835233192036448</v>
       </c>
     </row>
-    <row r="40" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:30" x14ac:dyDescent="0.25">
       <c r="L40" s="8" t="s">
         <v>135</v>
       </c>
@@ -4932,6 +4940,60 @@
         <f>(M38*M34)/('Electricity Costs'!C30*0.01)</f>
         <v>-2.8424139897167175E-2</v>
       </c>
+    </row>
+    <row r="44" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="24"/>
+    </row>
+    <row r="48" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6224,10 +6286,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView topLeftCell="N13" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6247,13 +6309,14 @@
     <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.5703125" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>107</v>
       </c>
@@ -6270,12 +6333,12 @@
       <c r="P1" s="8"/>
       <c r="R1" s="15"/>
       <c r="S1" s="15"/>
-      <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="2"/>
+      <c r="X1" s="1"/>
       <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="I2" s="1"/>
@@ -6284,12 +6347,12 @@
       <c r="L2" s="2"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
-      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="2"/>
+      <c r="X2" s="1"/>
       <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C3" s="8"/>
       <c r="D3" s="17" t="s">
         <v>109</v>
@@ -6314,16 +6377,16 @@
         <v>108</v>
       </c>
       <c r="S3" s="15"/>
-      <c r="V3" s="18" t="s">
+      <c r="W3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="X3" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6382,22 +6445,25 @@
         <v>116</v>
       </c>
       <c r="U4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="V4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="W4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="X4" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="Y4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6456,21 +6522,25 @@
         <v>25107.199999999997</v>
       </c>
       <c r="U5" s="11">
+        <f>SUM(Q5:S5)</f>
+        <v>25107.199999999997</v>
+      </c>
+      <c r="V5" s="11">
         <f>SUM($T$5:T5)</f>
         <v>25107.199999999997</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="52">
+      <c r="W5" s="18"/>
+      <c r="X5" s="52">
         <f>$D$5*($B$30-O5)/$B$30</f>
         <v>25107.199999999997</v>
       </c>
-      <c r="X5" s="11">
-        <f>-U5+W5</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="21"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y5" s="11">
+        <f>-V5+X5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="21"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A5+1</f>
         <v>2022</v>
@@ -6544,33 +6614,37 @@
         <v>-4992.3233444321122</v>
       </c>
       <c r="U6" s="11">
+        <f t="shared" ref="U6:U30" si="3">SUM(Q6:S6)</f>
+        <v>-3826.9515353311131</v>
+      </c>
+      <c r="V6" s="11">
         <f>SUM($T$5:T6)</f>
         <v>20114.876655567885</v>
       </c>
-      <c r="V6" s="1" t="str">
-        <f>IF(U6&lt;0,"Yes","No")</f>
+      <c r="W6" s="1" t="str">
+        <f>IF(V6&lt;0,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="W6" s="52">
+      <c r="X6" s="52">
         <f>($D$5*($B$30-O6)/$B$30)*'PV Degrad. SPV SRECS'!H2</f>
         <v>22738.596226415088</v>
       </c>
-      <c r="X6" s="11">
-        <f>-U6+W6</f>
+      <c r="Y6" s="11">
+        <f>-V6+X6</f>
         <v>2623.7195708472027</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Z6" s="16">
         <f>O6</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ref="A7:A30" si="3">A6+1</f>
+        <f t="shared" ref="A7:A30" si="4">A6+1</f>
         <v>2023</v>
       </c>
       <c r="B7" s="16">
-        <f t="shared" ref="B7:B30" si="4">B6+1</f>
+        <f t="shared" ref="B7:B30" si="5">B6+1</f>
         <v>2</v>
       </c>
       <c r="C7" s="52">
@@ -6613,11 +6687,11 @@
         <v>2</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:O30" si="5">N6+1</f>
+        <f t="shared" ref="N7:O30" si="6">N6+1</f>
         <v>2023</v>
       </c>
       <c r="O7" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="P7" s="12">
@@ -6640,33 +6714,37 @@
         <v>-4618.9777848539488</v>
       </c>
       <c r="U7" s="11">
+        <f t="shared" si="3"/>
+        <v>-3519.5704177775356</v>
+      </c>
+      <c r="V7" s="11">
         <f>SUM($T$5:T7)</f>
         <v>15495.898870713936</v>
       </c>
-      <c r="V7" s="1" t="str">
-        <f>IF(U7&lt;0,"Yes","No")</f>
+      <c r="W7" s="1" t="str">
+        <f>IF(V7&lt;0,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="W7" s="52">
+      <c r="X7" s="52">
         <f>($D$5*($B$30-O7)/$B$30)*'PV Degrad. SPV SRECS'!H3</f>
         <v>20557.693129227482</v>
       </c>
-      <c r="X7" s="11">
-        <f>-U7+W7</f>
+      <c r="Y7" s="11">
+        <f>-V7+X7</f>
         <v>5061.7942585135461</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Z7" s="16">
         <f>O7</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2024</v>
       </c>
       <c r="B8" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C8" s="52">
@@ -6709,11 +6787,11 @@
         <v>3</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2024</v>
       </c>
       <c r="O8" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="P8" s="12">
@@ -6736,33 +6814,37 @@
         <v>-4273.9397397156845</v>
       </c>
       <c r="U8" s="11">
+        <f t="shared" si="3"/>
+        <v>-3236.7629783228417</v>
+      </c>
+      <c r="V8" s="11">
         <f>SUM($T$5:T8)</f>
         <v>11221.959130998252</v>
       </c>
-      <c r="V8" s="1" t="str">
-        <f>IF(U8&lt;0,"Yes","No")</f>
+      <c r="W8" s="1" t="str">
+        <f>IF(V8&lt;0,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="W8" s="52">
+      <c r="X8" s="52">
         <f>($D$5*($B$30-O8)/$B$30)*'PV Degrad. SPV SRECS'!H4</f>
         <v>18550.830551394767</v>
       </c>
-      <c r="X8" s="11">
-        <f>-U8+W8</f>
+      <c r="Y8" s="11">
+        <f>-V8+X8</f>
         <v>7328.8714203965155</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Z8" s="16">
         <f>O8</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
       <c r="B9" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C9" s="52">
@@ -6805,11 +6887,11 @@
         <v>4</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2025</v>
       </c>
       <c r="O9" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="P9" s="12">
@@ -6832,33 +6914,37 @@
         <v>-3583.800437775958</v>
       </c>
       <c r="U9" s="11">
+        <f t="shared" si="3"/>
+        <v>-2605.3317949525217</v>
+      </c>
+      <c r="V9" s="11">
         <f>SUM($T$5:T9)</f>
         <v>7638.1586932222936</v>
       </c>
-      <c r="V9" s="1" t="str">
-        <f>IF(U9&lt;0,"Yes","No")</f>
+      <c r="W9" s="1" t="str">
+        <f>IF(V9&lt;0,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="W9" s="52">
+      <c r="X9" s="52">
         <f>($D$5*($B$30-O9)/$B$30)*'PV Degrad. SPV SRECS'!H5</f>
         <v>16705.293378185685</v>
       </c>
-      <c r="X9" s="11">
-        <f>-U9+W9</f>
+      <c r="Y9" s="11">
+        <f>-V9+X9</f>
         <v>9067.1346849633919</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Z9" s="16">
         <f>O9</f>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2026</v>
       </c>
       <c r="B10" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C10" s="52">
@@ -6901,11 +6987,11 @@
         <v>5</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2026</v>
       </c>
       <c r="O10" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="P10" s="12">
@@ -6928,33 +7014,37 @@
         <v>-3318.6302581050604</v>
       </c>
       <c r="U10" s="11">
+        <f t="shared" si="3"/>
+        <v>-2395.5466327999316</v>
+      </c>
+      <c r="V10" s="11">
         <f>SUM($T$5:T10)</f>
         <v>4319.5284351172331</v>
       </c>
-      <c r="V10" s="1" t="str">
-        <f>IF(U10&lt;0,"Yes","No")</f>
+      <c r="W10" s="1" t="str">
+        <f>IF(V10&lt;0,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="W10" s="52">
+      <c r="X10" s="52">
         <f>($D$5*($B$30-O10)/$B$30)*'PV Degrad. SPV SRECS'!H6</f>
         <v>15009.248318226129</v>
       </c>
-      <c r="X10" s="11">
-        <f>-U10+W10</f>
+      <c r="Y10" s="11">
+        <f>-V10+X10</f>
         <v>10689.719883108897</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Z10" s="16">
         <f>O10</f>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2027</v>
       </c>
       <c r="B11" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C11" s="52">
@@ -6997,11 +7087,11 @@
         <v>6</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2027</v>
       </c>
       <c r="O11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="P11" s="12">
@@ -7024,33 +7114,37 @@
         <v>-3073.3862646300363</v>
       </c>
       <c r="U11" s="11">
+        <f t="shared" si="3"/>
+        <v>-2202.5526558516131</v>
+      </c>
+      <c r="V11" s="11">
         <f>SUM($T$5:T11)</f>
         <v>1246.1421704871968</v>
       </c>
-      <c r="V11" s="1" t="str">
-        <f>IF(U11&lt;0,"Yes","No")</f>
+      <c r="W11" s="1" t="str">
+        <f>IF(V11&lt;0,"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="W11" s="52">
+      <c r="X11" s="52">
         <f>($D$5*($B$30-O11)/$B$30)*'PV Degrad. SPV SRECS'!H7</f>
         <v>13451.684813504549</v>
       </c>
-      <c r="X11" s="11">
-        <f>-U11+W11</f>
+      <c r="Y11" s="11">
+        <f>-V11+X11</f>
         <v>12205.542643017352</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Z11" s="16">
         <f>O11</f>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2028</v>
       </c>
       <c r="B12" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C12" s="52">
@@ -7093,11 +7187,11 @@
         <v>7</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2028</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="P12" s="12">
@@ -7120,33 +7214,37 @@
         <v>-2846.1583290956505</v>
       </c>
       <c r="U12" s="11">
+        <f t="shared" si="3"/>
+        <v>-2024.6171887386474</v>
+      </c>
+      <c r="V12" s="11">
         <f>SUM($T$5:T12)</f>
         <v>-1600.0161586084537</v>
       </c>
-      <c r="V12" s="1" t="str">
-        <f>IF(U12&lt;0,"Yes","No")</f>
+      <c r="W12" s="1" t="str">
+        <f>IF(V12&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W12" s="52">
+      <c r="X12" s="52">
         <f>($D$5*($B$30-O12)/$B$30)*'PV Degrad. SPV SRECS'!H8</f>
         <v>12022.359813459872</v>
       </c>
-      <c r="X12" s="11">
-        <f>-U12+W12</f>
+      <c r="Y12" s="11">
+        <f>-V12+X12</f>
         <v>13622.375972068327</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Z12" s="16">
         <f>O12</f>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2029</v>
       </c>
       <c r="B13" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C13" s="52">
@@ -7189,11 +7287,11 @@
         <v>8</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2029</v>
       </c>
       <c r="O13" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="P13" s="12">
@@ -7216,33 +7314,37 @@
         <v>-2634.2323581882556</v>
       </c>
       <c r="U13" s="11">
+        <f t="shared" si="3"/>
+        <v>-1859.193546530706</v>
+      </c>
+      <c r="V13" s="11">
         <f>SUM($T$5:T13)</f>
         <v>-4234.2485167967097</v>
       </c>
-      <c r="V13" s="1" t="str">
-        <f>IF(U13&lt;0,"Yes","No")</f>
+      <c r="W13" s="1" t="str">
+        <f>IF(V13&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W13" s="52">
+      <c r="X13" s="52">
         <f>($D$5*($B$30-O13)/$B$30)*'PV Degrad. SPV SRECS'!H9</f>
         <v>10711.746165032382</v>
       </c>
-      <c r="X13" s="11">
-        <f>-U13+W13</f>
+      <c r="Y13" s="11">
+        <f>-V13+X13</f>
         <v>14945.994681829092</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Z13" s="16">
         <f>O13</f>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2030</v>
       </c>
       <c r="B14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C14" s="52">
@@ -7285,11 +7387,11 @@
         <v>9</v>
       </c>
       <c r="N14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2030</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="P14" s="12">
@@ -7312,33 +7414,37 @@
         <v>-2438.261804653027</v>
       </c>
       <c r="U14" s="11">
+        <f t="shared" si="3"/>
+        <v>-1707.0931144100555</v>
+      </c>
+      <c r="V14" s="11">
         <f>SUM($T$5:T14)</f>
         <v>-6672.5103214497367</v>
       </c>
-      <c r="V14" s="1" t="str">
-        <f>IF(U14&lt;0,"Yes","No")</f>
+      <c r="W14" s="1" t="str">
+        <f>IF(V14&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W14" s="52">
+      <c r="X14" s="52">
         <f>($D$5*($B$30-O14)/$B$30)*'PV Degrad. SPV SRECS'!H10</f>
         <v>9510.9843862662656</v>
       </c>
-      <c r="X14" s="11">
-        <f>-U14+W14</f>
+      <c r="Y14" s="11">
+        <f>-V14+X14</f>
         <v>16183.494707716003</v>
       </c>
-      <c r="Y14" s="16">
+      <c r="Z14" s="16">
         <f>O14</f>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2031</v>
       </c>
       <c r="B15" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C15" s="52">
@@ -7381,11 +7487,11 @@
         <v>10</v>
       </c>
       <c r="N15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2031</v>
       </c>
       <c r="O15" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="P15" s="12">
@@ -7408,33 +7514,37 @@
         <v>-2257.0330711456909</v>
       </c>
       <c r="U15" s="11">
+        <f t="shared" si="3"/>
+        <v>-1567.2512878976049</v>
+      </c>
+      <c r="V15" s="11">
         <f>SUM($T$5:T15)</f>
         <v>-8929.5433925954276</v>
       </c>
-      <c r="V15" s="1" t="str">
-        <f>IF(U15&lt;0,"Yes","No")</f>
+      <c r="W15" s="1" t="str">
+        <f>IF(V15&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W15" s="52">
+      <c r="X15" s="52">
         <f>($D$5*($B$30-O15)/$B$30)*'PV Degrad. SPV SRECS'!H11</f>
         <v>8411.8376057779478</v>
       </c>
-      <c r="X15" s="11">
-        <f>-U15+W15</f>
+      <c r="Y15" s="11">
+        <f>-V15+X15</f>
         <v>17341.380998373374</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="Z15" s="16">
         <f>O15</f>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2032</v>
       </c>
       <c r="B16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="C16" s="52">
@@ -7477,11 +7587,11 @@
         <v>11</v>
       </c>
       <c r="N16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2032</v>
       </c>
       <c r="O16" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="P16" s="12">
@@ -7504,33 +7614,37 @@
         <v>-636.74667444174725</v>
       </c>
       <c r="U16" s="11">
+        <f t="shared" si="3"/>
+        <v>13.990856924371553</v>
+      </c>
+      <c r="V16" s="11">
         <f>SUM($T$5:T16)</f>
         <v>-9566.2900670371746</v>
       </c>
-      <c r="V16" s="1" t="str">
-        <f>IF(U16&lt;0,"Yes","No")</f>
+      <c r="W16" s="1" t="str">
+        <f>IF(V16&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W16" s="52">
+      <c r="X16" s="52">
         <f>($D$5*($B$30-O16)/$B$30)*'PV Degrad. SPV SRECS'!H12</f>
         <v>7406.6494642069965</v>
       </c>
-      <c r="X16" s="11">
-        <f>-U16+W16</f>
+      <c r="Y16" s="11">
+        <f>-V16+X16</f>
         <v>16972.93953124417</v>
       </c>
-      <c r="Y16" s="16">
+      <c r="Z16" s="16">
         <f>O16</f>
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2033</v>
       </c>
       <c r="B17" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C17" s="52">
@@ -7573,11 +7687,11 @@
         <v>12</v>
       </c>
       <c r="N17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2033</v>
       </c>
       <c r="O17" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="P17" s="12">
@@ -7600,33 +7714,37 @@
         <v>-597.54280769359582</v>
       </c>
       <c r="U17" s="11">
+        <f t="shared" si="3"/>
+        <v>16.360523783874587</v>
+      </c>
+      <c r="V17" s="11">
         <f>SUM($T$5:T17)</f>
         <v>-10163.83287473077</v>
       </c>
-      <c r="V17" s="1" t="str">
-        <f>IF(U17&lt;0,"Yes","No")</f>
+      <c r="W17" s="1" t="str">
+        <f>IF(V17&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W17" s="52">
+      <c r="X17" s="52">
         <f>($D$5*($B$30-O17)/$B$30)*'PV Degrad. SPV SRECS'!H13</f>
         <v>6488.3047867042424</v>
       </c>
-      <c r="X17" s="11">
-        <f>-U17+W17</f>
+      <c r="Y17" s="11">
+        <f>-V17+X17</f>
         <v>16652.137661435012</v>
       </c>
-      <c r="Y17" s="16">
+      <c r="Z17" s="16">
         <f>O17</f>
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2034</v>
       </c>
       <c r="B18" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="C18" s="52">
@@ -7669,11 +7787,11 @@
         <v>13</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2034</v>
       </c>
       <c r="O18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="P18" s="12">
@@ -7696,33 +7814,37 @@
         <v>-560.7369863551761</v>
       </c>
       <c r="U18" s="11">
+        <f t="shared" si="3"/>
+        <v>18.417099944324111</v>
+      </c>
+      <c r="V18" s="11">
         <f>SUM($T$5:T18)</f>
         <v>-10724.569861085945</v>
       </c>
-      <c r="V18" s="1" t="str">
-        <f>IF(U18&lt;0,"Yes","No")</f>
+      <c r="W18" s="1" t="str">
+        <f>IF(V18&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W18" s="52">
+      <c r="X18" s="52">
         <f>($D$5*($B$30-O18)/$B$30)*'PV Degrad. SPV SRECS'!H14</f>
         <v>5650.1928476379462</v>
       </c>
-      <c r="X18" s="11">
-        <f>-U18+W18</f>
+      <c r="Y18" s="11">
+        <f>-V18+X18</f>
         <v>16374.762708723891</v>
       </c>
-      <c r="Y18" s="16">
+      <c r="Z18" s="16">
         <f>O18</f>
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2035</v>
       </c>
       <c r="B19" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="C19" s="52">
@@ -7765,11 +7887,11 @@
         <v>14</v>
       </c>
       <c r="N19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2035</v>
       </c>
       <c r="O19" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="P19" s="12">
@@ -7792,33 +7914,37 @@
         <v>-526.18334227427704</v>
       </c>
       <c r="U19" s="11">
+        <f t="shared" si="3"/>
+        <v>20.188437253553332</v>
+      </c>
+      <c r="V19" s="11">
         <f>SUM($T$5:T19)</f>
         <v>-11250.753203360222</v>
       </c>
-      <c r="V19" s="1" t="str">
-        <f>IF(U19&lt;0,"Yes","No")</f>
+      <c r="W19" s="1" t="str">
+        <f>IF(V19&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W19" s="52">
+      <c r="X19" s="52">
         <f>($D$5*($B$30-O19)/$B$30)*'PV Degrad. SPV SRECS'!H15</f>
         <v>4886.1730600642613</v>
       </c>
-      <c r="X19" s="11">
-        <f>-U19+W19</f>
+      <c r="Y19" s="11">
+        <f>-V19+X19</f>
         <v>16136.926263424484</v>
       </c>
-      <c r="Y19" s="16">
+      <c r="Z19" s="16">
         <f>O19</f>
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2036</v>
       </c>
       <c r="B20" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C20" s="52">
@@ -7861,11 +7987,11 @@
         <v>15</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2036</v>
       </c>
       <c r="O20" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="P20" s="12">
@@ -7888,33 +8014,37 @@
         <v>-493.74483736764984</v>
       </c>
       <c r="U20" s="11">
+        <f t="shared" si="3"/>
+        <v>21.700237658605342</v>
+      </c>
+      <c r="V20" s="11">
         <f>SUM($T$5:T20)</f>
         <v>-11744.498040727873</v>
       </c>
-      <c r="V20" s="1" t="str">
-        <f>IF(U20&lt;0,"Yes","No")</f>
+      <c r="W20" s="1" t="str">
+        <f>IF(V20&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W20" s="52">
+      <c r="X20" s="52">
         <f>($D$5*($B$30-O20)/$B$30)*'PV Degrad. SPV SRECS'!H16</f>
         <v>4190.5429331597434</v>
       </c>
-      <c r="X20" s="11">
-        <f>-U20+W20</f>
+      <c r="Y20" s="11">
+        <f>-V20+X20</f>
         <v>15935.040973887615</v>
       </c>
-      <c r="Y20" s="16">
+      <c r="Z20" s="16">
         <f>O20</f>
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2037</v>
       </c>
       <c r="B21" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="C21" s="52">
@@ -7957,11 +8087,11 @@
         <v>16</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2037</v>
       </c>
       <c r="O21" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="P21" s="12">
@@ -7984,33 +8114,37 @@
         <v>-463.29273135024943</v>
       </c>
       <c r="U21" s="11">
+        <f t="shared" si="3"/>
+        <v>22.976207353764664</v>
+      </c>
+      <c r="V21" s="11">
         <f>SUM($T$5:T21)</f>
         <v>-12207.790772078122</v>
       </c>
-      <c r="V21" s="1" t="str">
-        <f>IF(U21&lt;0,"Yes","No")</f>
+      <c r="W21" s="1" t="str">
+        <f>IF(V21&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W21" s="52">
+      <c r="X21" s="52">
         <f>($D$5*($B$30-O21)/$B$30)*'PV Degrad. SPV SRECS'!H17</f>
         <v>3558.0081507960094</v>
       </c>
-      <c r="X21" s="11">
-        <f>-U21+W21</f>
+      <c r="Y21" s="11">
+        <f>-V21+X21</f>
         <v>15765.798922874132</v>
       </c>
-      <c r="Y21" s="16">
+      <c r="Z21" s="16">
         <f>O21</f>
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2038</v>
       </c>
       <c r="B22" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="C22" s="52">
@@ -8053,11 +8187,11 @@
         <v>17</v>
       </c>
       <c r="N22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2038</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="P22" s="12">
@@ -8080,33 +8214,37 @@
         <v>-434.70608143011668</v>
       </c>
       <c r="U22" s="11">
+        <f t="shared" si="3"/>
+        <v>24.038200366122958</v>
+      </c>
+      <c r="V22" s="11">
         <f>SUM($T$5:T22)</f>
         <v>-12642.496853508239</v>
       </c>
-      <c r="V22" s="1" t="str">
-        <f>IF(U22&lt;0,"Yes","No")</f>
+      <c r="W22" s="1" t="str">
+        <f>IF(V22&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W22" s="52">
+      <c r="X22" s="52">
         <f>($D$5*($B$30-O22)/$B$30)*'PV Degrad. SPV SRECS'!H18</f>
         <v>2983.6546337912023</v>
       </c>
-      <c r="X22" s="11">
-        <f>-U22+W22</f>
+      <c r="Y22" s="11">
+        <f>-V22+X22</f>
         <v>15626.151487299441</v>
       </c>
-      <c r="Y22" s="16">
+      <c r="Z22" s="16">
         <f>O22</f>
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2039</v>
       </c>
       <c r="B23" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="C23" s="52">
@@ -8149,11 +8287,11 @@
         <v>18</v>
       </c>
       <c r="N23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2039</v>
       </c>
       <c r="O23" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="P23" s="12">
@@ -8176,33 +8314,37 @@
         <v>-407.87127205553401</v>
       </c>
       <c r="U23" s="11">
+        <f t="shared" si="3"/>
+        <v>24.906352280541125</v>
+      </c>
+      <c r="V23" s="11">
         <f>SUM($T$5:T23)</f>
         <v>-13050.368125563773</v>
       </c>
-      <c r="V23" s="1" t="str">
-        <f>IF(U23&lt;0,"Yes","No")</f>
+      <c r="W23" s="1" t="str">
+        <f>IF(V23&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W23" s="52">
+      <c r="X23" s="52">
         <f>($D$5*($B$30-O23)/$B$30)*'PV Degrad. SPV SRECS'!H19</f>
         <v>2462.9224571389641</v>
       </c>
-      <c r="X23" s="11">
-        <f>-U23+W23</f>
+      <c r="Y23" s="11">
+        <f>-V23+X23</f>
         <v>15513.290582702737</v>
       </c>
-      <c r="Y23" s="16">
+      <c r="Z23" s="16">
         <f>O23</f>
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2040</v>
       </c>
       <c r="B24" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="C24" s="52">
@@ -8245,11 +8387,11 @@
         <v>19</v>
       </c>
       <c r="N24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2040</v>
       </c>
       <c r="O24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="P24" s="12">
@@ -8272,33 +8414,37 @@
         <v>-382.68157291528604</v>
       </c>
       <c r="U24" s="11">
+        <f t="shared" si="3"/>
+        <v>25.599204760256512</v>
+      </c>
+      <c r="V24" s="11">
         <f>SUM($T$5:T24)</f>
         <v>-13433.049698479059</v>
       </c>
-      <c r="V24" s="1" t="str">
-        <f>IF(U24&lt;0,"Yes","No")</f>
+      <c r="W24" s="1" t="str">
+        <f>IF(V24&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W24" s="52">
+      <c r="X24" s="52">
         <f>($D$5*($B$30-O24)/$B$30)*'PV Degrad. SPV SRECS'!H20</f>
         <v>1991.5815017296202</v>
       </c>
-      <c r="X24" s="11">
-        <f>-U24+W24</f>
+      <c r="Y24" s="11">
+        <f>-V24+X24</f>
         <v>15424.63120020868</v>
       </c>
-      <c r="Y24" s="16">
+      <c r="Z24" s="16">
         <f>O24</f>
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2041</v>
       </c>
       <c r="B25" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="C25" s="52">
@@ -8341,11 +8487,11 @@
         <v>20</v>
       </c>
       <c r="N25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2041</v>
       </c>
       <c r="O25" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="P25" s="12">
@@ -8368,33 +8514,37 @@
         <v>-359.03672350024226</v>
       </c>
       <c r="U25" s="11">
+        <f t="shared" si="3"/>
+        <v>26.133821476684478</v>
+      </c>
+      <c r="V25" s="11">
         <f>SUM($T$5:T25)</f>
         <v>-13792.0864219793</v>
       </c>
-      <c r="V25" s="1" t="str">
-        <f>IF(U25&lt;0,"Yes","No")</f>
+      <c r="W25" s="1" t="str">
+        <f>IF(V25&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W25" s="52">
+      <c r="X25" s="52">
         <f>($D$5*($B$30-O25)/$B$30)*'PV Degrad. SPV SRECS'!H21</f>
         <v>1565.708727774859</v>
       </c>
-      <c r="X25" s="11">
-        <f>-U25+W25</f>
+      <c r="Y25" s="11">
+        <f>-V25+X25</f>
         <v>15357.79514975416</v>
       </c>
-      <c r="Y25" s="16">
+      <c r="Z25" s="16">
         <f>O25</f>
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2042</v>
       </c>
       <c r="B26" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="C26" s="52">
@@ -8437,11 +8587,11 @@
         <v>21</v>
       </c>
       <c r="N26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2042</v>
       </c>
       <c r="O26" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="P26" s="12">
@@ -8464,33 +8614,37 @@
         <v>-336.84254263548212</v>
       </c>
       <c r="U26" s="11">
+        <f t="shared" si="3"/>
+        <v>26.525896021995962</v>
+      </c>
+      <c r="V26" s="11">
         <f>SUM($T$5:T26)</f>
         <v>-14128.928964614783</v>
       </c>
-      <c r="V26" s="1" t="str">
-        <f>IF(U26&lt;0,"Yes","No")</f>
+      <c r="W26" s="1" t="str">
+        <f>IF(V26&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W26" s="52">
+      <c r="X26" s="52">
         <f>($D$5*($B$30-O26)/$B$30)*'PV Degrad. SPV SRECS'!H22</f>
         <v>1181.6669643583839</v>
       </c>
-      <c r="X26" s="11">
-        <f>-U26+W26</f>
+      <c r="Y26" s="11">
+        <f>-V26+X26</f>
         <v>15310.595928973167</v>
       </c>
-      <c r="Y26" s="16">
+      <c r="Z26" s="16">
         <f>O26</f>
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2043</v>
       </c>
       <c r="B27" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="C27" s="52">
@@ -8533,11 +8687,11 @@
         <v>22</v>
       </c>
       <c r="N27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2043</v>
       </c>
       <c r="O27" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="P27" s="12">
@@ -8560,33 +8714,37 @@
         <v>-316.01056148716606</v>
       </c>
       <c r="U27" s="11">
+        <f t="shared" si="3"/>
+        <v>26.789852340643371</v>
+      </c>
+      <c r="V27" s="11">
         <f>SUM($T$5:T27)</f>
         <v>-14444.939526101949</v>
       </c>
-      <c r="V27" s="1" t="str">
-        <f>IF(U27&lt;0,"Yes","No")</f>
+      <c r="W27" s="1" t="str">
+        <f>IF(V27&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W27" s="52">
+      <c r="X27" s="52">
         <f>($D$5*($B$30-O27)/$B$30)*'PV Degrad. SPV SRECS'!H23</f>
         <v>836.08511629130919</v>
       </c>
-      <c r="X27" s="11">
-        <f>-U27+W27</f>
+      <c r="Y27" s="11">
+        <f>-V27+X27</f>
         <v>15281.024642393259</v>
       </c>
-      <c r="Y27" s="16">
+      <c r="Z27" s="16">
         <f>O27</f>
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2044</v>
       </c>
       <c r="B28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="C28" s="52">
@@ -8629,11 +8787,11 @@
         <v>23</v>
       </c>
       <c r="N28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2044</v>
       </c>
       <c r="O28" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="P28" s="12">
@@ -8656,33 +8814,37 @@
         <v>-296.45767863769134</v>
       </c>
       <c r="U28" s="11">
+        <f t="shared" si="3"/>
+        <v>26.938938180996782</v>
+      </c>
+      <c r="V28" s="11">
         <f>SUM($T$5:T28)</f>
         <v>-14741.39720473964</v>
       </c>
-      <c r="V28" s="1" t="str">
-        <f>IF(U28&lt;0,"Yes","No")</f>
+      <c r="W28" s="1" t="str">
+        <f>IF(V28&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W28" s="52">
+      <c r="X28" s="52">
         <f>($D$5*($B$30-O28)/$B$30)*'PV Degrad. SPV SRECS'!H24</f>
         <v>525.83969578069764</v>
       </c>
-      <c r="X28" s="11">
-        <f>-U28+W28</f>
+      <c r="Y28" s="11">
+        <f>-V28+X28</f>
         <v>15267.236900520338</v>
       </c>
-      <c r="Y28" s="16">
+      <c r="Z28" s="16">
         <f>O28</f>
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2045</v>
       </c>
       <c r="B29" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="C29" s="52">
@@ -8725,11 +8887,11 @@
         <v>24</v>
       </c>
       <c r="N29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2045</v>
       </c>
       <c r="O29" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="P29" s="12">
@@ -8752,33 +8914,37 @@
         <v>-278.10583590667454</v>
       </c>
       <c r="U29" s="11">
+        <f t="shared" si="3"/>
+        <v>26.985312035483975</v>
+      </c>
+      <c r="V29" s="11">
         <f>SUM($T$5:T29)</f>
         <v>-15019.503040646314</v>
       </c>
-      <c r="V29" s="1" t="str">
-        <f>IF(U29&lt;0,"Yes","No")</f>
+      <c r="W29" s="1" t="str">
+        <f>IF(V29&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W29" s="52">
+      <c r="X29" s="52">
         <f>($D$5*($B$30-O29)/$B$30)*'PV Degrad. SPV SRECS'!H25</f>
         <v>248.03759234938568</v>
       </c>
-      <c r="X29" s="11">
-        <f>-U29+W29</f>
+      <c r="Y29" s="11">
+        <f>-V29+X29</f>
         <v>15267.540632995699</v>
       </c>
-      <c r="Y29" s="16">
+      <c r="Z29" s="16">
         <f>O29</f>
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2046</v>
       </c>
       <c r="B30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="C30" s="52">
@@ -8821,11 +8987,11 @@
         <v>25</v>
       </c>
       <c r="N30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2046</v>
       </c>
       <c r="O30" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="P30" s="12">
@@ -8848,27 +9014,31 @@
         <v>-260.88171367431352</v>
       </c>
       <c r="U30" s="11">
+        <f t="shared" si="3"/>
+        <v>26.940124006968006</v>
+      </c>
+      <c r="V30" s="11">
         <f>SUM($T$5:T30)</f>
         <v>-15280.384754320627</v>
       </c>
-      <c r="V30" s="1" t="str">
-        <f>IF(U30&lt;0,"Yes","No")</f>
+      <c r="W30" s="1" t="str">
+        <f>IF(V30&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W30" s="52">
+      <c r="X30" s="52">
         <f>($D$5*($B$30-O30)/$B$30)*'PV Degrad. SPV SRECS'!H26</f>
         <v>0</v>
       </c>
-      <c r="X30" s="11">
-        <f>-U30+W30</f>
+      <c r="Y30" s="11">
+        <f>-V30+X30</f>
         <v>15280.384754320627</v>
       </c>
-      <c r="Y30" s="16">
+      <c r="Z30" s="16">
         <f>O30</f>
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="P31" s="9">
@@ -8882,8 +9052,9 @@
         <f>SUM(T6:T30)</f>
         <v>-40387.584754320633</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U31" s="10"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="S32" s="8" t="s">
         <v>136</v>
       </c>
@@ -8891,24 +9062,25 @@
         <f>SUM(Q5:S30)</f>
         <v>510.81991177561514</v>
       </c>
-      <c r="W32" s="8" t="s">
+      <c r="U32" s="10"/>
+      <c r="X32" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="X32" s="10">
+      <c r="Y32" s="10">
         <f>T32</f>
         <v>510.81991177561514</v>
       </c>
     </row>
-    <row r="33" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W33" s="8" t="s">
+    <row r="33" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="X33" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="X33" s="10">
-        <f>X30</f>
+      <c r="Y33" s="10">
+        <f>Y30</f>
         <v>15280.384754320627</v>
       </c>
     </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D34" s="8" t="s">
         <v>113</v>
       </c>
@@ -8920,105 +9092,133 @@
         <f>56198.84/25107</f>
         <v>2.2383733620105946</v>
       </c>
-      <c r="W34" s="8" t="s">
+      <c r="X34" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="X34" s="21">
+      <c r="Y34" s="21">
         <f>-T31/Q5</f>
         <v>1.6086056889784857</v>
       </c>
     </row>
-    <row r="35" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:45" x14ac:dyDescent="0.25">
       <c r="G35" s="46">
         <f>(1+'User Inputs - EX 1'!B23)*(G34)^(1/25)-1</f>
         <v>0.1166146928799654</v>
       </c>
-      <c r="W35" s="8" t="s">
+      <c r="X35" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="X35" s="53">
-        <f>(1+'User Inputs - EX 1'!$B$20)*'Purch. Cash Net Metering'!X34^(1/'Purch. Cash Net Metering'!$O$30)-1</f>
+      <c r="Y35" s="53">
+        <f>(1+'User Inputs - EX 1'!$B$20)*'Purch. Cash Net Metering'!Y34^(1/'Purch. Cash Net Metering'!$O$30)-1</f>
         <v>8.0348440297442592E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W36" s="8" t="s">
+    <row r="36" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="X36" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="X36" s="10">
+      <c r="Y36" s="10">
         <f>Q5</f>
         <v>25107.199999999997</v>
       </c>
     </row>
-    <row r="37" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W37" s="8" t="s">
+    <row r="37" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="X37" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="X37" s="10">
+      <c r="Y37" s="10">
         <f>T31</f>
         <v>-40387.584754320633</v>
       </c>
     </row>
-    <row r="38" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W38" s="8" t="s">
+    <row r="38" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="X38" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="X38" s="8">
+      <c r="Y38" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W39" s="8" t="s">
+    <row r="39" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="X39" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="X39" s="8">
+      <c r="Y39" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W40" s="8" t="s">
+    <row r="40" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="X40" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="X40" s="8">
+      <c r="Y40" s="8">
         <f>SUM('Electricity Costs'!P5:P29)</f>
         <v>7950.0000000000091</v>
       </c>
     </row>
-    <row r="41" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W41" s="8" t="s">
+    <row r="41" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="X41" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="X41" s="8">
-        <f>X40-'Electricity Costs'!C30</f>
+      <c r="Y41" s="8">
+        <f>Y40-'Electricity Costs'!C30</f>
         <v>-242050</v>
       </c>
     </row>
-    <row r="42" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W42" s="8" t="s">
+    <row r="42" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="X42" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="X42" s="21">
-        <f>X33/X41</f>
+      <c r="Y42" s="21">
+        <f>Y33/Y41</f>
         <v>-6.3129042571041627E-2</v>
       </c>
     </row>
-    <row r="43" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W43" s="8" t="s">
+    <row r="43" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="X43" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="X43" s="21">
-        <f>X42*'Electricity Costs'!C30*0.01</f>
+      <c r="Y43" s="21">
+        <f>Y42*'Electricity Costs'!C30*0.01</f>
         <v>-157.82260642760406</v>
       </c>
     </row>
-    <row r="44" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W44" s="8" t="s">
+    <row r="44" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="X44" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="X44" s="51">
-        <f>(X42*X33)/('Electricity Costs'!C30*0.01)</f>
+      <c r="Y44" s="51">
+        <f>(Y42*Y33)/('Electricity Costs'!C30*0.01)</f>
         <v>-0.38585442386296093</v>
       </c>
+    </row>
+    <row r="47" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="24"/>
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24"/>
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="24"/>
+      <c r="AI47" s="24"/>
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="24"/>
+      <c r="AL47" s="24"/>
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="24"/>
+      <c r="AP47" s="24"/>
+      <c r="AQ47" s="24"/>
+      <c r="AR47" s="24"/>
+      <c r="AS47" s="24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I6:I30">
@@ -9036,9 +9236,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V6:V30">
+  <conditionalFormatting sqref="W6:W30">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",V6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Yes",W6)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -9060,7 +9260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFD3F12-885D-40AC-910E-66C0D580C8A8}">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M13" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>

--- a/PV2 Documents/Solar PV Cost Evaluator-1.xlsx
+++ b/PV2 Documents/Solar PV Cost Evaluator-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkneifel\Desktop\PV2 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE45A3-7818-4AD9-824A-DFA00356F345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1AB1EF-938F-4B91-ABC2-B85F7F2B35A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="495" windowWidth="17775" windowHeight="14085" tabRatio="859" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="855" windowWidth="17775" windowHeight="14085" tabRatio="859" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Inputs - EX 1" sheetId="20" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="138">
   <si>
     <t>Year</t>
   </si>
@@ -466,7 +466,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -659,7 +659,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -696,21 +696,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4737,27 +4723,27 @@
       </c>
       <c r="N30" s="14"/>
       <c r="Q30" s="26">
-        <f>SUM(Q5:Q29)</f>
+        <f t="shared" ref="Q30:V30" si="17">SUM(Q5:Q29)</f>
         <v>-62.628890649384005</v>
       </c>
       <c r="R30" s="1">
-        <f>SUM(R5:R29)</f>
+        <f t="shared" si="17"/>
         <v>1630.2945172237164</v>
       </c>
       <c r="S30" s="1">
-        <f>SUM(S5:S29)</f>
+        <f t="shared" si="17"/>
         <v>1567.6656265743322</v>
       </c>
       <c r="T30" s="49">
-        <f>SUM(T5:T29)</f>
+        <f t="shared" si="17"/>
         <v>-51.193530758269418</v>
       </c>
       <c r="U30" s="49">
-        <f>SUM(U5:U29)</f>
+        <f t="shared" si="17"/>
         <v>373.38645771186373</v>
       </c>
       <c r="V30" s="49">
-        <f>SUM(V5:V29)</f>
+        <f t="shared" si="17"/>
         <v>322.19292695359422</v>
       </c>
       <c r="Y30" s="26">
@@ -6288,8 +6274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6487,11 +6473,11 @@
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="25">
-        <f>$D$5*($B$30-B5)/$B$30</f>
+        <f t="shared" ref="J5:J30" si="0">$D$5*($B$30-B5)/$B$30</f>
         <v>25107.199999999997</v>
       </c>
       <c r="K5" s="4">
-        <f>-H5+J5</f>
+        <f t="shared" ref="K5:K30" si="1">-H5+J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="21"/>
@@ -6506,15 +6492,15 @@
         <v>0</v>
       </c>
       <c r="Q5" s="12">
-        <f t="shared" ref="Q5:S5" si="0">D5</f>
+        <f t="shared" ref="Q5:S5" si="2">D5</f>
         <v>25107.199999999997</v>
       </c>
       <c r="R5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5" s="11">
@@ -6535,7 +6521,7 @@
         <v>25107.199999999997</v>
       </c>
       <c r="Y5" s="11">
-        <f>-V5+X5</f>
+        <f t="shared" ref="Y5:Y30" si="3">-V5+X5</f>
         <v>0</v>
       </c>
       <c r="Z5" s="21"/>
@@ -6564,7 +6550,7 @@
         <v>-4120</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" ref="G6:G30" si="1">SUM(C6:F6)</f>
+        <f t="shared" ref="G6:G30" si="4">SUM(C6:F6)</f>
         <v>-5397.7</v>
       </c>
       <c r="H6" s="11">
@@ -6572,19 +6558,19 @@
         <v>19709.499999999996</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF(H6&lt;0,"Yes","No")</f>
+        <f t="shared" ref="I6:I30" si="5">IF(H6&lt;0,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="J6" s="25">
-        <f>$D$5*($B$30-B6)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>24102.911999999997</v>
       </c>
       <c r="K6" s="4">
-        <f>-H6+J6</f>
+        <f t="shared" si="1"/>
         <v>4393.4120000000003</v>
       </c>
       <c r="L6" s="16">
-        <f>B6</f>
+        <f t="shared" ref="L6:L30" si="6">B6</f>
         <v>1</v>
       </c>
       <c r="N6">
@@ -6610,11 +6596,11 @@
         <v>-3810.5808361080276</v>
       </c>
       <c r="T6" s="11">
-        <f t="shared" ref="T6:T30" si="2">SUM(P6:S6)</f>
+        <f t="shared" ref="T6:T30" si="7">SUM(P6:S6)</f>
         <v>-4992.3233444321122</v>
       </c>
       <c r="U6" s="11">
-        <f t="shared" ref="U6:U30" si="3">SUM(Q6:S6)</f>
+        <f t="shared" ref="U6:U30" si="8">SUM(Q6:S6)</f>
         <v>-3826.9515353311131</v>
       </c>
       <c r="V6" s="11">
@@ -6622,7 +6608,7 @@
         <v>20114.876655567885</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f>IF(V6&lt;0,"Yes","No")</f>
+        <f t="shared" ref="W6:W30" si="9">IF(V6&lt;0,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="X6" s="52">
@@ -6630,21 +6616,21 @@
         <v>22738.596226415088</v>
       </c>
       <c r="Y6" s="11">
-        <f>-V6+X6</f>
+        <f t="shared" si="3"/>
         <v>2623.7195708472027</v>
       </c>
       <c r="Z6" s="16">
-        <f>O6</f>
+        <f t="shared" ref="Z6:Z30" si="10">O6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ref="A7:A30" si="4">A6+1</f>
+        <f t="shared" ref="A7:A30" si="11">A6+1</f>
         <v>2023</v>
       </c>
       <c r="B7" s="16">
-        <f t="shared" ref="B7:B30" si="5">B6+1</f>
+        <f t="shared" ref="B7:B30" si="12">B6+1</f>
         <v>2</v>
       </c>
       <c r="C7" s="52">
@@ -6663,7 +6649,7 @@
         <v>-4099.3999999999996</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5399.5547299999998</v>
       </c>
       <c r="H7" s="11">
@@ -6671,27 +6657,27 @@
         <v>14309.945269999997</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF(H7&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="J7" s="25">
-        <f>$D$5*($B$30-B7)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>23098.624</v>
       </c>
       <c r="K7" s="4">
-        <f>-H7+J7</f>
+        <f t="shared" si="1"/>
         <v>8788.6787300000033</v>
       </c>
       <c r="L7" s="16">
-        <f>B7</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:O30" si="6">N6+1</f>
+        <f t="shared" ref="N7:O30" si="13">N6+1</f>
         <v>2023</v>
       </c>
       <c r="O7" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="P7" s="12">
@@ -6710,11 +6696,11 @@
         <v>-3506.7775914978602</v>
       </c>
       <c r="T7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-4618.9777848539488</v>
       </c>
       <c r="U7" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-3519.5704177775356</v>
       </c>
       <c r="V7" s="11">
@@ -6722,7 +6708,7 @@
         <v>15495.898870713936</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f>IF(V7&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="X7" s="52">
@@ -6730,21 +6716,21 @@
         <v>20557.693129227482</v>
       </c>
       <c r="Y7" s="11">
-        <f>-V7+X7</f>
+        <f t="shared" si="3"/>
         <v>5061.7942585135461</v>
       </c>
       <c r="Z7" s="16">
-        <f>O7</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
       <c r="B8" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C8" s="52">
@@ -6763,7 +6749,7 @@
         <v>-4078.9029999999998</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5401.8995691999999</v>
       </c>
       <c r="H8" s="11">
@@ -6771,27 +6757,27 @@
         <v>8908.0457007999976</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF(H8&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="J8" s="25">
-        <f>$D$5*($B$30-B8)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>22094.335999999996</v>
       </c>
       <c r="K8" s="4">
-        <f>-H8+J8</f>
+        <f t="shared" si="1"/>
         <v>13186.290299199998</v>
       </c>
       <c r="L8" s="16">
-        <f>B8</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="N8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2024</v>
       </c>
       <c r="O8" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P8" s="12">
@@ -6810,11 +6796,11 @@
         <v>-3227.1954342770728</v>
       </c>
       <c r="T8" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-4273.9397397156845</v>
       </c>
       <c r="U8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-3236.7629783228417</v>
       </c>
       <c r="V8" s="11">
@@ -6822,7 +6808,7 @@
         <v>11221.959130998252</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f>IF(V8&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="X8" s="52">
@@ -6830,21 +6816,21 @@
         <v>18550.830551394767</v>
       </c>
       <c r="Y8" s="11">
-        <f>-V8+X8</f>
+        <f t="shared" si="3"/>
         <v>7328.8714203965155</v>
       </c>
       <c r="Z8" s="16">
-        <f>O8</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
       <c r="B9" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C9" s="52">
@@ -6863,7 +6849,7 @@
         <v>-3551.194924375</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4897.4269444510001</v>
       </c>
       <c r="H9" s="11">
@@ -6871,27 +6857,27 @@
         <v>4010.6187563489975</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF(H9&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="J9" s="25">
-        <f>$D$5*($B$30-B9)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>21090.047999999999</v>
       </c>
       <c r="K9" s="4">
-        <f>-H9+J9</f>
+        <f t="shared" si="1"/>
         <v>17079.429243651</v>
       </c>
       <c r="L9" s="16">
-        <f>B9</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="N9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2025</v>
       </c>
       <c r="O9" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P9" s="12">
@@ -6910,11 +6896,11 @@
         <v>-2598.6653949014758</v>
       </c>
       <c r="T9" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-3583.800437775958</v>
       </c>
       <c r="U9" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-2605.3317949525217</v>
       </c>
       <c r="V9" s="11">
@@ -6922,7 +6908,7 @@
         <v>7638.1586932222936</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f>IF(V9&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="X9" s="52">
@@ -6930,21 +6916,21 @@
         <v>16705.293378185685</v>
       </c>
       <c r="Y9" s="11">
-        <f>-V9+X9</f>
+        <f t="shared" si="3"/>
         <v>9067.1346849633919</v>
       </c>
       <c r="Z9" s="16">
-        <f>O9</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2026</v>
       </c>
       <c r="B10" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C10" s="52">
@@ -6963,7 +6949,7 @@
         <v>-3533.4389497531251</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4903.3066401124852</v>
       </c>
       <c r="H10" s="11">
@@ -6971,27 +6957,27 @@
         <v>-892.68788376348766</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF(H10&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J10" s="25">
-        <f>$D$5*($B$30-B10)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>20085.759999999998</v>
       </c>
       <c r="K10" s="4">
-        <f>-H10+J10</f>
+        <f t="shared" si="1"/>
         <v>20978.447883763485</v>
       </c>
       <c r="L10" s="16">
-        <f>B10</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="N10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2026</v>
       </c>
       <c r="O10" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P10" s="12">
@@ -7010,11 +6996,11 @@
         <v>-2391.4835996364855</v>
       </c>
       <c r="T10" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-3318.6302581050604</v>
       </c>
       <c r="U10" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-2395.5466327999316</v>
       </c>
       <c r="V10" s="11">
@@ -7022,7 +7008,7 @@
         <v>4319.5284351172331</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f>IF(V10&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="X10" s="52">
@@ -7030,21 +7016,21 @@
         <v>15009.248318226129</v>
       </c>
       <c r="Y10" s="11">
-        <f>-V10+X10</f>
+        <f t="shared" si="3"/>
         <v>10689.719883108897</v>
       </c>
       <c r="Z10" s="16">
-        <f>O10</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2027</v>
       </c>
       <c r="B11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C11" s="52">
@@ -7063,7 +7049,7 @@
         <v>-3515.7717550043594</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4909.6820496503833</v>
       </c>
       <c r="H11" s="11">
@@ -7071,27 +7057,27 @@
         <v>-5802.369933413871</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF(H11&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J11" s="25">
-        <f>$D$5*($B$30-B11)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>19081.471999999998</v>
       </c>
       <c r="K11" s="4">
-        <f>-H11+J11</f>
+        <f t="shared" si="1"/>
         <v>24883.841933413867</v>
       </c>
       <c r="L11" s="16">
-        <f>B11</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2027</v>
       </c>
       <c r="O11" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="P11" s="12">
@@ -7110,11 +7096,11 @@
         <v>-2200.8196278563655</v>
       </c>
       <c r="T11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-3073.3862646300363</v>
       </c>
       <c r="U11" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-2202.5526558516131</v>
       </c>
       <c r="V11" s="11">
@@ -7122,7 +7108,7 @@
         <v>1246.1421704871968</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f>IF(V11&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="X11" s="52">
@@ -7130,21 +7116,21 @@
         <v>13451.684813504549</v>
       </c>
       <c r="Y11" s="11">
-        <f>-V11+X11</f>
+        <f t="shared" si="3"/>
         <v>12205.542643017352</v>
       </c>
       <c r="Z11" s="16">
-        <f>O11</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2028</v>
       </c>
       <c r="B12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C12" s="52">
@@ -7163,7 +7149,7 @@
         <v>-3498.1928962293382</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4915.8804763185326</v>
       </c>
       <c r="H12" s="11">
@@ -7171,27 +7157,27 @@
         <v>-10718.250409732404</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF(H12&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J12" s="25">
-        <f>$D$5*($B$30-B12)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>18077.183999999997</v>
       </c>
       <c r="K12" s="4">
-        <f>-H12+J12</f>
+        <f t="shared" si="1"/>
         <v>28795.434409732399</v>
       </c>
       <c r="L12" s="16">
-        <f>B12</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="N12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2028</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="P12" s="12">
@@ -7210,11 +7196,11 @@
         <v>-2025.3565757649687</v>
       </c>
       <c r="T12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-2846.1583290956505</v>
       </c>
       <c r="U12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-2024.6171887386474</v>
       </c>
       <c r="V12" s="11">
@@ -7222,7 +7208,7 @@
         <v>-1600.0161586084537</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f>IF(V12&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X12" s="52">
@@ -7230,21 +7216,21 @@
         <v>12022.359813459872</v>
       </c>
       <c r="Y12" s="11">
-        <f>-V12+X12</f>
+        <f t="shared" si="3"/>
         <v>13622.375972068327</v>
       </c>
       <c r="Z12" s="16">
-        <f>O12</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2029</v>
       </c>
       <c r="B13" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="C13" s="52">
@@ -7263,7 +7249,7 @@
         <v>-3480.7019317481904</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4919.2894421417932</v>
       </c>
       <c r="H13" s="11">
@@ -7271,27 +7257,27 @@
         <v>-15637.539851874197</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF(H13&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J13" s="25">
-        <f>$D$5*($B$30-B13)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>17072.895999999997</v>
       </c>
       <c r="K13" s="4">
-        <f>-H13+J13</f>
+        <f t="shared" si="1"/>
         <v>32710.435851874194</v>
       </c>
       <c r="L13" s="16">
-        <f>B13</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="N13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2029</v>
       </c>
       <c r="O13" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="P13" s="12">
@@ -7310,11 +7296,11 @@
         <v>-1863.8825313412342</v>
       </c>
       <c r="T13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-2634.2323581882556</v>
       </c>
       <c r="U13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-1859.193546530706</v>
       </c>
       <c r="V13" s="11">
@@ -7322,7 +7308,7 @@
         <v>-4234.2485167967097</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f>IF(V13&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X13" s="52">
@@ -7330,21 +7316,21 @@
         <v>10711.746165032382</v>
       </c>
       <c r="Y13" s="11">
-        <f>-V13+X13</f>
+        <f t="shared" si="3"/>
         <v>14945.994681829092</v>
       </c>
       <c r="Z13" s="16">
-        <f>O13</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2030</v>
       </c>
       <c r="B14" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="C14" s="52">
@@ -7363,7 +7349,7 @@
         <v>-3463.29842208945</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4923.0547849676004</v>
       </c>
       <c r="H14" s="11">
@@ -7371,27 +7357,27 @@
         <v>-20560.594636841797</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF(H14&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J14" s="25">
-        <f>$D$5*($B$30-B14)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>16068.607999999998</v>
       </c>
       <c r="K14" s="4">
-        <f>-H14+J14</f>
+        <f t="shared" si="1"/>
         <v>36629.202636841794</v>
       </c>
       <c r="L14" s="16">
-        <f>B14</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="N14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2030</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="P14" s="12">
@@ -7410,11 +7396,11 @@
         <v>-1715.2822037407768</v>
       </c>
       <c r="T14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-2438.261804653027</v>
       </c>
       <c r="U14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-1707.0931144100555</v>
       </c>
       <c r="V14" s="11">
@@ -7422,7 +7408,7 @@
         <v>-6672.5103214497367</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f>IF(V14&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X14" s="52">
@@ -7430,21 +7416,21 @@
         <v>9510.9843862662656</v>
       </c>
       <c r="Y14" s="11">
-        <f>-V14+X14</f>
+        <f t="shared" si="3"/>
         <v>16183.494707716003</v>
       </c>
       <c r="Z14" s="16">
-        <f>O14</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2031</v>
       </c>
       <c r="B15" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C15" s="52">
@@ -7463,7 +7449,7 @@
         <v>-3445.9819299790029</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4927.1784644369263</v>
       </c>
       <c r="H15" s="11">
@@ -7471,27 +7457,27 @@
         <v>-25487.773101278723</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF(H15&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J15" s="25">
-        <f>$D$5*($B$30-B15)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>15064.319999999998</v>
       </c>
       <c r="K15" s="4">
-        <f>-H15+J15</f>
+        <f t="shared" si="1"/>
         <v>40552.093101278719</v>
       </c>
       <c r="L15" s="16">
-        <f>B15</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="N15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2031</v>
       </c>
       <c r="O15" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="P15" s="12">
@@ -7510,11 +7496,11 @@
         <v>-1578.5292200537112</v>
       </c>
       <c r="T15" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-2257.0330711456909</v>
       </c>
       <c r="U15" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-1567.2512878976049</v>
       </c>
       <c r="V15" s="11">
@@ -7522,7 +7508,7 @@
         <v>-8929.5433925954276</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f>IF(V15&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X15" s="52">
@@ -7530,21 +7516,21 @@
         <v>8411.8376057779478</v>
       </c>
       <c r="Y15" s="11">
-        <f>-V15+X15</f>
+        <f t="shared" si="3"/>
         <v>17341.380998373374</v>
       </c>
       <c r="Z15" s="16">
-        <f>O15</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2032</v>
       </c>
       <c r="B16" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="C16" s="52">
@@ -7563,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1502.9104103557361</v>
       </c>
       <c r="H16" s="11">
@@ -7571,27 +7557,27 @@
         <v>-26990.683511634459</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF(H16&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J16" s="25">
-        <f>$D$5*($B$30-B16)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>14060.031999999997</v>
       </c>
       <c r="K16" s="4">
-        <f>-H16+J16</f>
+        <f t="shared" si="1"/>
         <v>41050.715511634458</v>
       </c>
       <c r="L16" s="16">
-        <f>B16</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="N16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2032</v>
       </c>
       <c r="O16" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="P16" s="12">
@@ -7610,11 +7596,11 @@
         <v>0</v>
       </c>
       <c r="T16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-636.74667444174725</v>
       </c>
       <c r="U16" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>13.990856924371553</v>
       </c>
       <c r="V16" s="11">
@@ -7622,7 +7608,7 @@
         <v>-9566.2900670371746</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f>IF(V16&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X16" s="52">
@@ -7630,21 +7616,21 @@
         <v>7406.6494642069965</v>
       </c>
       <c r="Y16" s="11">
-        <f>-V16+X16</f>
+        <f t="shared" si="3"/>
         <v>16972.93953124417</v>
       </c>
       <c r="Z16" s="16">
-        <f>O16</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2033</v>
       </c>
       <c r="B17" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="C17" s="52">
@@ -7663,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1524.9003626756778</v>
       </c>
       <c r="H17" s="11">
@@ -7671,27 +7657,27 @@
         <v>-28515.583874310138</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF(H17&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J17" s="25">
-        <f>$D$5*($B$30-B17)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>13055.743999999999</v>
       </c>
       <c r="K17" s="4">
-        <f>-H17+J17</f>
+        <f t="shared" si="1"/>
         <v>41571.32787431014</v>
       </c>
       <c r="L17" s="16">
-        <f>B17</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2033</v>
       </c>
       <c r="O17" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="P17" s="12">
@@ -7710,11 +7696,11 @@
         <v>0</v>
       </c>
       <c r="T17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-597.54280769359582</v>
       </c>
       <c r="U17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>16.360523783874587</v>
       </c>
       <c r="V17" s="11">
@@ -7722,7 +7708,7 @@
         <v>-10163.83287473077</v>
       </c>
       <c r="W17" s="1" t="str">
-        <f>IF(V17&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X17" s="52">
@@ -7730,21 +7716,21 @@
         <v>6488.3047867042424</v>
       </c>
       <c r="Y17" s="11">
-        <f>-V17+X17</f>
+        <f t="shared" si="3"/>
         <v>16652.137661435012</v>
       </c>
       <c r="Z17" s="16">
-        <f>O17</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2034</v>
       </c>
       <c r="B18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="C18" s="52">
@@ -7763,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1547.1687489242752</v>
       </c>
       <c r="H18" s="11">
@@ -7771,27 +7757,27 @@
         <v>-30062.752623234413</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF(H18&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J18" s="25">
-        <f>$D$5*($B$30-B18)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>12051.455999999998</v>
       </c>
       <c r="K18" s="4">
-        <f>-H18+J18</f>
+        <f t="shared" si="1"/>
         <v>42114.208623234415</v>
       </c>
       <c r="L18" s="16">
-        <f>B18</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="N18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2034</v>
       </c>
       <c r="O18" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="P18" s="12">
@@ -7810,11 +7796,11 @@
         <v>0</v>
       </c>
       <c r="T18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-560.7369863551761</v>
       </c>
       <c r="U18" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18.417099944324111</v>
       </c>
       <c r="V18" s="11">
@@ -7822,7 +7808,7 @@
         <v>-10724.569861085945</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f>IF(V18&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X18" s="52">
@@ -7830,21 +7816,21 @@
         <v>5650.1928476379462</v>
       </c>
       <c r="Y18" s="11">
-        <f>-V18+X18</f>
+        <f t="shared" si="3"/>
         <v>16374.762708723891</v>
       </c>
       <c r="Z18" s="16">
-        <f>O18</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2035</v>
       </c>
       <c r="B19" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="C19" s="52">
@@ -7863,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1569.717910477746</v>
       </c>
       <c r="H19" s="11">
@@ -7871,27 +7857,27 @@
         <v>-31632.47053371216</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF(H19&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J19" s="25">
-        <f>$D$5*($B$30-B19)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>11047.167999999998</v>
       </c>
       <c r="K19" s="4">
-        <f>-H19+J19</f>
+        <f t="shared" si="1"/>
         <v>42679.638533712161</v>
       </c>
       <c r="L19" s="16">
-        <f>B19</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="N19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2035</v>
       </c>
       <c r="O19" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="P19" s="12">
@@ -7910,11 +7896,11 @@
         <v>0</v>
       </c>
       <c r="T19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-526.18334227427704</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>20.188437253553332</v>
       </c>
       <c r="V19" s="11">
@@ -7922,7 +7908,7 @@
         <v>-11250.753203360222</v>
       </c>
       <c r="W19" s="1" t="str">
-        <f>IF(V19&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X19" s="52">
@@ -7930,21 +7916,21 @@
         <v>4886.1730600642613</v>
       </c>
       <c r="Y19" s="11">
-        <f>-V19+X19</f>
+        <f t="shared" si="3"/>
         <v>16136.926263424484</v>
       </c>
       <c r="Z19" s="16">
-        <f>O19</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2036</v>
       </c>
       <c r="B20" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="C20" s="52">
@@ -7963,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1592.550170993786</v>
       </c>
       <c r="H20" s="11">
@@ -7971,27 +7957,27 @@
         <v>-33225.020704705945</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF(H20&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J20" s="25">
-        <f>$D$5*($B$30-B20)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>10042.879999999999</v>
       </c>
       <c r="K20" s="4">
-        <f>-H20+J20</f>
+        <f t="shared" si="1"/>
         <v>43267.900704705942</v>
       </c>
       <c r="L20" s="16">
-        <f>B20</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="N20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2036</v>
       </c>
       <c r="O20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="P20" s="12">
@@ -8010,11 +7996,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-493.74483736764984</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>21.700237658605342</v>
       </c>
       <c r="V20" s="11">
@@ -8022,7 +8008,7 @@
         <v>-11744.498040727873</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f>IF(V20&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X20" s="52">
@@ -8030,21 +8016,21 @@
         <v>4190.5429331597434</v>
       </c>
       <c r="Y20" s="11">
-        <f>-V20+X20</f>
+        <f t="shared" si="3"/>
         <v>15935.040973887615</v>
       </c>
       <c r="Z20" s="16">
-        <f>O20</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2037</v>
       </c>
       <c r="B21" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="C21" s="52">
@@ -8063,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1615.6678347662764</v>
       </c>
       <c r="H21" s="11">
@@ -8071,27 +8057,27 @@
         <v>-34840.688539472219</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF(H21&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J21" s="25">
-        <f>$D$5*($B$30-B21)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>9038.5919999999987</v>
       </c>
       <c r="K21" s="4">
-        <f>-H21+J21</f>
+        <f t="shared" si="1"/>
         <v>43879.280539472216</v>
       </c>
       <c r="L21" s="16">
-        <f>B21</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="N21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2037</v>
       </c>
       <c r="O21" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="P21" s="12">
@@ -8110,11 +8096,11 @@
         <v>0</v>
       </c>
       <c r="T21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-463.29273135024943</v>
       </c>
       <c r="U21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>22.976207353764664</v>
       </c>
       <c r="V21" s="11">
@@ -8122,7 +8108,7 @@
         <v>-12207.790772078122</v>
       </c>
       <c r="W21" s="1" t="str">
-        <f>IF(V21&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X21" s="52">
@@ -8130,21 +8116,21 @@
         <v>3558.0081507960094</v>
       </c>
       <c r="Y21" s="11">
-        <f>-V21+X21</f>
+        <f t="shared" si="3"/>
         <v>15765.798922874132</v>
       </c>
       <c r="Z21" s="16">
-        <f>O21</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2038</v>
       </c>
       <c r="B22" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="C22" s="52">
@@ -8163,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1639.0731850212692</v>
       </c>
       <c r="H22" s="11">
@@ -8171,27 +8157,27 @@
         <v>-36479.761724493488</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF(H22&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J22" s="25">
-        <f>$D$5*($B$30-B22)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>8034.3039999999992</v>
       </c>
       <c r="K22" s="4">
-        <f>-H22+J22</f>
+        <f t="shared" si="1"/>
         <v>44514.065724493485</v>
       </c>
       <c r="L22" s="16">
-        <f>B22</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="N22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2038</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="P22" s="12">
@@ -8210,11 +8196,11 @@
         <v>0</v>
       </c>
       <c r="T22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-434.70608143011668</v>
       </c>
       <c r="U22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>24.038200366122958</v>
       </c>
       <c r="V22" s="11">
@@ -8222,7 +8208,7 @@
         <v>-12642.496853508239</v>
       </c>
       <c r="W22" s="1" t="str">
-        <f>IF(V22&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X22" s="52">
@@ -8230,21 +8216,21 @@
         <v>2983.6546337912023</v>
       </c>
       <c r="Y22" s="11">
-        <f>-V22+X22</f>
+        <f t="shared" si="3"/>
         <v>15626.151487299441</v>
       </c>
       <c r="Z22" s="16">
-        <f>O22</f>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2039</v>
       </c>
       <c r="B23" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="C23" s="52">
@@ -8263,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1662.7684821525552</v>
       </c>
       <c r="H23" s="11">
@@ -8271,27 +8257,27 @@
         <v>-38142.530206646043</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF(H23&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J23" s="25">
-        <f>$D$5*($B$30-B23)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>7030.0159999999987</v>
       </c>
       <c r="K23" s="4">
-        <f>-H23+J23</f>
+        <f t="shared" si="1"/>
         <v>45172.546206646039</v>
       </c>
       <c r="L23" s="16">
-        <f>B23</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="N23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2039</v>
       </c>
       <c r="O23" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="P23" s="12">
@@ -8310,11 +8296,11 @@
         <v>0</v>
       </c>
       <c r="T23" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-407.87127205553401</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>24.906352280541125</v>
       </c>
       <c r="V23" s="11">
@@ -8322,7 +8308,7 @@
         <v>-13050.368125563773</v>
       </c>
       <c r="W23" s="1" t="str">
-        <f>IF(V23&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X23" s="52">
@@ -8330,21 +8316,21 @@
         <v>2462.9224571389641</v>
       </c>
       <c r="Y23" s="11">
-        <f>-V23+X23</f>
+        <f t="shared" si="3"/>
         <v>15513.290582702737</v>
       </c>
       <c r="Z23" s="16">
-        <f>O23</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2040</v>
       </c>
       <c r="B24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="C24" s="52">
@@ -8363,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1686.7559618950836</v>
       </c>
       <c r="H24" s="11">
@@ -8371,27 +8357,27 @@
         <v>-39829.286168541126</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF(H24&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J24" s="25">
-        <f>$D$5*($B$30-B24)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>6025.7279999999992</v>
       </c>
       <c r="K24" s="4">
-        <f>-H24+J24</f>
+        <f t="shared" si="1"/>
         <v>45855.014168541122</v>
       </c>
       <c r="L24" s="16">
-        <f>B24</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="N24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2040</v>
       </c>
       <c r="O24" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="P24" s="12">
@@ -8410,11 +8396,11 @@
         <v>0</v>
       </c>
       <c r="T24" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-382.68157291528604</v>
       </c>
       <c r="U24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>25.599204760256512</v>
       </c>
       <c r="V24" s="11">
@@ -8422,7 +8408,7 @@
         <v>-13433.049698479059</v>
       </c>
       <c r="W24" s="1" t="str">
-        <f>IF(V24&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X24" s="52">
@@ -8430,21 +8416,21 @@
         <v>1991.5815017296202</v>
       </c>
       <c r="Y24" s="11">
-        <f>-V24+X24</f>
+        <f t="shared" si="3"/>
         <v>15424.63120020868</v>
       </c>
       <c r="Z24" s="16">
-        <f>O24</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2041</v>
       </c>
       <c r="B25" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="C25" s="52">
@@ -8463,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1711.0378334344523</v>
       </c>
       <c r="H25" s="11">
@@ -8471,27 +8457,27 @@
         <v>-41540.324001975576</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF(H25&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J25" s="25">
-        <f>$D$5*($B$30-B25)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>5021.4399999999996</v>
       </c>
       <c r="K25" s="4">
-        <f>-H25+J25</f>
+        <f t="shared" si="1"/>
         <v>46561.764001975578</v>
       </c>
       <c r="L25" s="16">
-        <f>B25</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="N25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2041</v>
       </c>
       <c r="O25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="P25" s="12">
@@ -8510,11 +8496,11 @@
         <v>0</v>
       </c>
       <c r="T25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-359.03672350024226</v>
       </c>
       <c r="U25" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26.133821476684478</v>
       </c>
       <c r="V25" s="11">
@@ -8522,7 +8508,7 @@
         <v>-13792.0864219793</v>
       </c>
       <c r="W25" s="1" t="str">
-        <f>IF(V25&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X25" s="52">
@@ -8530,21 +8516,21 @@
         <v>1565.708727774859</v>
       </c>
       <c r="Y25" s="11">
-        <f>-V25+X25</f>
+        <f t="shared" si="3"/>
         <v>15357.79514975416</v>
       </c>
       <c r="Z25" s="16">
-        <f>O25</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2042</v>
       </c>
       <c r="B26" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="C26" s="52">
@@ -8563,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1735.6162774506379</v>
       </c>
       <c r="H26" s="11">
@@ -8571,27 +8557,27 @@
         <v>-43275.940279426213</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF(H26&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J26" s="25">
-        <f>$D$5*($B$30-B26)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>4017.1519999999996</v>
       </c>
       <c r="K26" s="4">
-        <f>-H26+J26</f>
+        <f t="shared" si="1"/>
         <v>47293.092279426215</v>
       </c>
       <c r="L26" s="16">
-        <f>B26</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="N26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2042</v>
       </c>
       <c r="O26" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="P26" s="12">
@@ -8610,11 +8596,11 @@
         <v>0</v>
       </c>
       <c r="T26" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-336.84254263548212</v>
       </c>
       <c r="U26" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26.525896021995962</v>
       </c>
       <c r="V26" s="11">
@@ -8622,7 +8608,7 @@
         <v>-14128.928964614783</v>
       </c>
       <c r="W26" s="1" t="str">
-        <f>IF(V26&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X26" s="52">
@@ -8630,21 +8616,21 @@
         <v>1181.6669643583839</v>
       </c>
       <c r="Y26" s="11">
-        <f>-V26+X26</f>
+        <f t="shared" si="3"/>
         <v>15310.595928973167</v>
       </c>
       <c r="Z26" s="16">
-        <f>O26</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2043</v>
       </c>
       <c r="B27" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="C27" s="52">
@@ -8663,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1760.493444094097</v>
       </c>
       <c r="H27" s="11">
@@ -8671,27 +8657,27 @@
         <v>-45036.433723520313</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF(H27&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J27" s="25">
-        <f>$D$5*($B$30-B27)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>3012.8639999999996</v>
       </c>
       <c r="K27" s="4">
-        <f>-H27+J27</f>
+        <f t="shared" si="1"/>
         <v>48049.297723520314</v>
       </c>
       <c r="L27" s="16">
-        <f>B27</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="N27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2043</v>
       </c>
       <c r="O27" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="P27" s="12">
@@ -8710,11 +8696,11 @@
         <v>0</v>
       </c>
       <c r="T27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-316.01056148716606</v>
       </c>
       <c r="U27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26.789852340643371</v>
       </c>
       <c r="V27" s="11">
@@ -8722,7 +8708,7 @@
         <v>-14444.939526101949</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f>IF(V27&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X27" s="52">
@@ -8730,21 +8716,21 @@
         <v>836.08511629130919</v>
       </c>
       <c r="Y27" s="11">
-        <f>-V27+X27</f>
+        <f t="shared" si="3"/>
         <v>15281.024642393259</v>
       </c>
       <c r="Z27" s="16">
-        <f>O27</f>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2044</v>
       </c>
       <c r="B28" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="C28" s="52">
@@ -8763,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1785.6714508923142</v>
       </c>
       <c r="H28" s="11">
@@ -8771,27 +8757,27 @@
         <v>-46822.105174412631</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF(H28&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J28" s="25">
-        <f>$D$5*($B$30-B28)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>2008.5759999999998</v>
       </c>
       <c r="K28" s="4">
-        <f>-H28+J28</f>
+        <f t="shared" si="1"/>
         <v>48830.681174412632</v>
       </c>
       <c r="L28" s="16">
-        <f>B28</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="N28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2044</v>
       </c>
       <c r="O28" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="P28" s="12">
@@ -8810,11 +8796,11 @@
         <v>0</v>
       </c>
       <c r="T28" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-296.45767863769134</v>
       </c>
       <c r="U28" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26.938938180996782</v>
       </c>
       <c r="V28" s="11">
@@ -8822,7 +8808,7 @@
         <v>-14741.39720473964</v>
       </c>
       <c r="W28" s="1" t="str">
-        <f>IF(V28&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X28" s="52">
@@ -8830,21 +8816,21 @@
         <v>525.83969578069764</v>
       </c>
       <c r="Y28" s="11">
-        <f>-V28+X28</f>
+        <f t="shared" si="3"/>
         <v>15267.236900520338</v>
       </c>
       <c r="Z28" s="16">
-        <f>O28</f>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2045</v>
       </c>
       <c r="B29" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="C29" s="52">
@@ -8863,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1811.1523805848224</v>
       </c>
       <c r="H29" s="11">
@@ -8871,27 +8857,27 @@
         <v>-48633.25755499745</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF(H29&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J29" s="25">
-        <f>$D$5*($B$30-B29)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>1004.2879999999999</v>
       </c>
       <c r="K29" s="4">
-        <f>-H29+J29</f>
+        <f t="shared" si="1"/>
         <v>49637.54555499745</v>
       </c>
       <c r="L29" s="16">
-        <f>B29</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="N29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2045</v>
       </c>
       <c r="O29" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="P29" s="12">
@@ -8910,11 +8896,11 @@
         <v>0</v>
       </c>
       <c r="T29" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-278.10583590667454</v>
       </c>
       <c r="U29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26.985312035483975</v>
       </c>
       <c r="V29" s="11">
@@ -8922,7 +8908,7 @@
         <v>-15019.503040646314</v>
       </c>
       <c r="W29" s="1" t="str">
-        <f>IF(V29&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X29" s="52">
@@ -8930,21 +8916,21 @@
         <v>248.03759234938568</v>
       </c>
       <c r="Y29" s="11">
-        <f>-V29+X29</f>
+        <f t="shared" si="3"/>
         <v>15267.540632995699</v>
       </c>
       <c r="Z29" s="16">
-        <f>O29</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2046</v>
       </c>
       <c r="B30" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="C30" s="52">
@@ -8963,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1836.9382788846742</v>
       </c>
       <c r="H30" s="11">
@@ -8971,27 +8957,27 @@
         <v>-50470.195833882128</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>IF(H30&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J30" s="25">
-        <f>$D$5*($B$30-B30)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="4">
-        <f>-H30+J30</f>
+        <f t="shared" si="1"/>
         <v>50470.195833882128</v>
       </c>
       <c r="L30" s="16">
-        <f>B30</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="N30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2046</v>
       </c>
       <c r="O30" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="P30" s="12">
@@ -9010,11 +8996,11 @@
         <v>0</v>
       </c>
       <c r="T30" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-260.88171367431352</v>
       </c>
       <c r="U30" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26.940124006968006</v>
       </c>
       <c r="V30" s="11">
@@ -9022,7 +9008,7 @@
         <v>-15280.384754320627</v>
       </c>
       <c r="W30" s="1" t="str">
-        <f>IF(V30&lt;0,"Yes","No")</f>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="X30" s="52">
@@ -9030,11 +9016,11 @@
         <v>0</v>
       </c>
       <c r="Y30" s="11">
-        <f>-V30+X30</f>
+        <f t="shared" si="3"/>
         <v>15280.384754320627</v>
       </c>
       <c r="Z30" s="16">
-        <f>O30</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
     </row>
@@ -9222,7 +9208,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I6:I30">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",I6)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -9237,7 +9223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:W30">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",W6)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -9258,10 +9244,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFD3F12-885D-40AC-910E-66C0D580C8A8}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:AR47"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="R13" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9281,13 +9267,15 @@
     <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>107</v>
       </c>
@@ -9306,12 +9294,12 @@
       <c r="P1" s="8"/>
       <c r="R1" s="15"/>
       <c r="S1" s="15"/>
-      <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="2"/>
+      <c r="X1" s="1"/>
       <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="I2" s="1"/>
@@ -9320,12 +9308,12 @@
       <c r="L2" s="2"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
-      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="2"/>
+      <c r="X2" s="1"/>
       <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C3" s="8"/>
       <c r="D3" s="17" t="s">
         <v>109</v>
@@ -9350,16 +9338,16 @@
         <v>108</v>
       </c>
       <c r="S3" s="15"/>
-      <c r="V3" s="18" t="s">
+      <c r="W3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="X3" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -9418,22 +9406,25 @@
         <v>116</v>
       </c>
       <c r="U4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="V4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="W4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="X4" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="Y4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -9457,11 +9448,11 @@
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="25">
-        <f>$D$5*($B$30-B5)/$B$30</f>
+        <f t="shared" ref="J5:J30" si="0">$D$5*($B$30-B5)/$B$30</f>
         <v>-6927.0400000000009</v>
       </c>
       <c r="K5" s="4">
-        <f>-H5+J5</f>
+        <f t="shared" ref="K5:K30" si="1">-H5+J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="21"/>
@@ -9480,11 +9471,11 @@
         <v>-6927.0400000000009</v>
       </c>
       <c r="R5" s="12">
-        <f t="shared" ref="Q5:S5" si="0">E5</f>
+        <f t="shared" ref="R5:S5" si="2">E5</f>
         <v>0</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5" s="11">
@@ -9492,21 +9483,25 @@
         <v>-6927.0400000000009</v>
       </c>
       <c r="U5" s="11">
+        <f>SUM(Q5:S5)</f>
+        <v>-6927.0400000000009</v>
+      </c>
+      <c r="V5" s="11">
         <f>SUM($T$5:T5)</f>
         <v>-6927.0400000000009</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="52">
+      <c r="W5" s="18"/>
+      <c r="X5" s="52">
         <f>$D$5*($B$30-O5)/$B$30</f>
         <v>-6927.0400000000009</v>
       </c>
-      <c r="X5" s="11">
-        <f>-U5+W5</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="21"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y5" s="11">
+        <f t="shared" ref="Y5:Y30" si="3">-V5+X5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="21"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A5+1</f>
         <v>2022</v>
@@ -9531,7 +9526,7 @@
         <v>-4120</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" ref="G6:G30" si="1">SUM(C6:F6)</f>
+        <f t="shared" ref="G6:G30" si="4">SUM(C6:F6)</f>
         <v>-1699.42</v>
       </c>
       <c r="H6" s="11">
@@ -9539,19 +9534,19 @@
         <v>-8626.4600000000009</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF(H6&lt;0,"Yes","No")</f>
+        <f t="shared" ref="I6:I30" si="5">IF(H6&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="J6" s="25">
-        <f>$D$5*($B$30-B6)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-6649.9584000000004</v>
       </c>
       <c r="K6" s="4">
-        <f>-H6+J6</f>
+        <f t="shared" si="1"/>
         <v>1976.5016000000005</v>
       </c>
       <c r="L6" s="16">
-        <f>B6</f>
+        <f t="shared" ref="L6:L30" si="6">B6</f>
         <v>1</v>
       </c>
       <c r="N6">
@@ -9578,37 +9573,41 @@
         <v>-3810.5808361080276</v>
       </c>
       <c r="T6" s="11">
-        <f t="shared" ref="T6:T30" si="2">SUM(P6:S6)</f>
+        <f t="shared" ref="T6:T30" si="7">SUM(P6:S6)</f>
         <v>-1590.3810580836107</v>
       </c>
       <c r="U6" s="11">
+        <f t="shared" ref="U6:U30" si="8">SUM(Q6:S6)</f>
+        <v>-425.00924898261201</v>
+      </c>
+      <c r="V6" s="11">
         <f>SUM($T$5:T6)</f>
         <v>-8517.4210580836116</v>
       </c>
-      <c r="V6" s="1" t="str">
-        <f>IF(U6&lt;0,"Yes","No")</f>
+      <c r="W6" s="1" t="str">
+        <f t="shared" ref="W6:W30" si="9">IF(V6&lt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="W6" s="52">
+      <c r="X6" s="52">
         <f>($D$5*($B$30-O6)/$B$30)*'PV Degrad. SPV SRECS'!H2</f>
         <v>-6273.5456603773582</v>
       </c>
-      <c r="X6" s="11">
-        <f>-U6+W6</f>
+      <c r="Y6" s="11">
+        <f t="shared" si="3"/>
         <v>2243.8753977062534</v>
       </c>
-      <c r="Y6" s="16">
-        <f>O6</f>
+      <c r="Z6" s="16">
+        <f t="shared" ref="Z6:Z30" si="10">O6</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ref="A7:B30" si="3">A6+1</f>
+        <f t="shared" ref="A7:B30" si="11">A6+1</f>
         <v>2023</v>
       </c>
       <c r="B7" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C7" s="52">
@@ -9628,7 +9627,7 @@
         <v>-4099.3999999999996</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1701.2747299999996</v>
       </c>
       <c r="H7" s="11">
@@ -9636,27 +9635,27 @@
         <v>-10327.73473</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF(H7&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J7" s="25">
-        <f>$D$5*($B$30-B7)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-6372.8768000000009</v>
       </c>
       <c r="K7" s="4">
-        <f>-H7+J7</f>
+        <f t="shared" si="1"/>
         <v>3954.8579299999992</v>
       </c>
       <c r="L7" s="16">
-        <f>B7</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:O30" si="4">N6+1</f>
+        <f t="shared" ref="N7:O30" si="12">N6+1</f>
         <v>2023</v>
       </c>
       <c r="O7" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="P7" s="12">
@@ -9676,37 +9675,41 @@
         <v>-3506.7775914978602</v>
       </c>
       <c r="T7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-1469.8604467788966</v>
       </c>
       <c r="U7" s="11">
+        <f t="shared" si="8"/>
+        <v>-370.45307970248268</v>
+      </c>
+      <c r="V7" s="11">
         <f>SUM($T$5:T7)</f>
         <v>-9987.2815048625089</v>
       </c>
-      <c r="V7" s="1" t="str">
-        <f>IF(U7&lt;0,"Yes","No")</f>
+      <c r="W7" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W7" s="52">
+      <c r="X7" s="52">
         <f>($D$5*($B$30-O7)/$B$30)*'PV Degrad. SPV SRECS'!H3</f>
         <v>-5671.8376646493416</v>
       </c>
-      <c r="X7" s="11">
-        <f>-U7+W7</f>
+      <c r="Y7" s="11">
+        <f t="shared" si="3"/>
         <v>4315.4438402131673</v>
       </c>
-      <c r="Y7" s="16">
-        <f>O7</f>
+      <c r="Z7" s="16">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
       <c r="B8" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C8" s="52">
@@ -9726,7 +9729,7 @@
         <v>-4078.9029999999998</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1703.6195692000001</v>
       </c>
       <c r="H8" s="11">
@@ -9734,27 +9737,27 @@
         <v>-12031.3542992</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF(H8&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J8" s="25">
-        <f>$D$5*($B$30-B8)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-6095.7952000000005</v>
       </c>
       <c r="K8" s="4">
-        <f>-H8+J8</f>
+        <f t="shared" si="1"/>
         <v>5935.5590991999998</v>
       </c>
       <c r="L8" s="16">
-        <f>B8</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2024</v>
       </c>
       <c r="O8" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="P8" s="12">
@@ -9774,37 +9777,41 @@
         <v>-3227.1954342770728</v>
       </c>
       <c r="T8" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-1358.7550173188313</v>
       </c>
       <c r="U8" s="11">
+        <f t="shared" si="8"/>
+        <v>-321.57825592598829</v>
+      </c>
+      <c r="V8" s="11">
         <f>SUM($T$5:T8)</f>
         <v>-11346.036522181341</v>
       </c>
-      <c r="V8" s="1" t="str">
-        <f>IF(U8&lt;0,"Yes","No")</f>
+      <c r="W8" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W8" s="52">
+      <c r="X8" s="52">
         <f>($D$5*($B$30-O8)/$B$30)*'PV Degrad. SPV SRECS'!H4</f>
         <v>-5118.1471953357459</v>
       </c>
-      <c r="X8" s="11">
-        <f>-U8+W8</f>
+      <c r="Y8" s="11">
+        <f t="shared" si="3"/>
         <v>6227.889326845595</v>
       </c>
-      <c r="Y8" s="16">
-        <f>O8</f>
+      <c r="Z8" s="16">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
       <c r="B9" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C9" s="52">
@@ -9824,7 +9831,7 @@
         <v>-3551.194924375</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1199.1469444510003</v>
       </c>
       <c r="H9" s="11">
@@ -9832,27 +9839,27 @@
         <v>-13230.501243651001</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF(H9&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J9" s="25">
-        <f>$D$5*($B$30-B9)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-5818.713600000001</v>
       </c>
       <c r="K9" s="4">
-        <f>-H9+J9</f>
+        <f t="shared" si="1"/>
         <v>7411.7876436509996</v>
       </c>
       <c r="L9" s="16">
-        <f>B9</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2025</v>
       </c>
       <c r="O9" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="P9" s="12">
@@ -9872,37 +9879,41 @@
         <v>-2598.6653949014758</v>
       </c>
       <c r="T9" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-885.07260576533872</v>
       </c>
       <c r="U9" s="11">
+        <f t="shared" si="8"/>
+        <v>93.39603705809759</v>
+      </c>
+      <c r="V9" s="11">
         <f>SUM($T$5:T9)</f>
         <v>-12231.10912794668</v>
       </c>
-      <c r="V9" s="1" t="str">
-        <f>IF(U9&lt;0,"Yes","No")</f>
+      <c r="W9" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W9" s="52">
+      <c r="X9" s="52">
         <f>($D$5*($B$30-O9)/$B$30)*'PV Degrad. SPV SRECS'!H5</f>
         <v>-4608.9661707568903</v>
       </c>
-      <c r="X9" s="11">
-        <f>-U9+W9</f>
+      <c r="Y9" s="11">
+        <f t="shared" si="3"/>
         <v>7622.1429571897897</v>
       </c>
-      <c r="Y9" s="16">
-        <f>O9</f>
+      <c r="Z9" s="16">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2026</v>
       </c>
       <c r="B10" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C10" s="52">
@@ -9922,7 +9933,7 @@
         <v>-3533.4389497531251</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1205.0266401124854</v>
       </c>
       <c r="H10" s="11">
@@ -9930,27 +9941,27 @@
         <v>-14435.527883763487</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF(H10&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J10" s="25">
-        <f>$D$5*($B$30-B10)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-5541.6320000000005</v>
       </c>
       <c r="K10" s="4">
-        <f>-H10+J10</f>
+        <f t="shared" si="1"/>
         <v>8893.8958837634855</v>
       </c>
       <c r="L10" s="16">
-        <f>B10</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2026</v>
       </c>
       <c r="O10" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="P10" s="12">
@@ -9970,37 +9981,41 @@
         <v>-2391.4835996364855</v>
       </c>
       <c r="T10" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-820.19375716020136</v>
       </c>
       <c r="U10" s="11">
+        <f t="shared" si="8"/>
+        <v>102.88986814492728</v>
+      </c>
+      <c r="V10" s="11">
         <f>SUM($T$5:T10)</f>
         <v>-13051.302885106881</v>
       </c>
-      <c r="V10" s="1" t="str">
-        <f>IF(U10&lt;0,"Yes","No")</f>
+      <c r="W10" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W10" s="52">
+      <c r="X10" s="52">
         <f>($D$5*($B$30-O10)/$B$30)*'PV Degrad. SPV SRECS'!H6</f>
         <v>-4141.0298030160729</v>
       </c>
-      <c r="X10" s="11">
-        <f>-U10+W10</f>
+      <c r="Y10" s="11">
+        <f t="shared" si="3"/>
         <v>8910.2730820908073</v>
       </c>
-      <c r="Y10" s="16">
-        <f>O10</f>
+      <c r="Z10" s="16">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2027</v>
       </c>
       <c r="B11" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C11" s="52">
@@ -10020,7 +10035,7 @@
         <v>-3515.7717550043594</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1211.402049650384</v>
       </c>
       <c r="H11" s="11">
@@ -10028,27 +10043,27 @@
         <v>-15646.92993341387</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF(H11&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J11" s="25">
-        <f>$D$5*($B$30-B11)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-5264.5504000000001</v>
       </c>
       <c r="K11" s="4">
-        <f>-H11+J11</f>
+        <f t="shared" si="1"/>
         <v>10382.37953341387</v>
       </c>
       <c r="L11" s="16">
-        <f>B11</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2027</v>
       </c>
       <c r="O11" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="P11" s="12">
@@ -10068,37 +10083,41 @@
         <v>-2200.8196278563655</v>
       </c>
       <c r="T11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-760.28726702363201</v>
       </c>
       <c r="U11" s="11">
+        <f t="shared" si="8"/>
+        <v>110.54634175479123</v>
+      </c>
+      <c r="V11" s="11">
         <f>SUM($T$5:T11)</f>
         <v>-13811.590152130513</v>
       </c>
-      <c r="V11" s="1" t="str">
-        <f>IF(U11&lt;0,"Yes","No")</f>
+      <c r="W11" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W11" s="52">
+      <c r="X11" s="52">
         <f>($D$5*($B$30-O11)/$B$30)*'PV Degrad. SPV SRECS'!H7</f>
         <v>-3711.3002951559138</v>
       </c>
-      <c r="X11" s="11">
-        <f>-U11+W11</f>
+      <c r="Y11" s="11">
+        <f t="shared" si="3"/>
         <v>10100.289856974599</v>
       </c>
-      <c r="Y11" s="16">
-        <f>O11</f>
+      <c r="Z11" s="16">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2028</v>
       </c>
       <c r="B12" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="C12" s="52">
@@ -10118,7 +10137,7 @@
         <v>-3498.1928962293382</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1217.6004763185333</v>
       </c>
       <c r="H12" s="11">
@@ -10126,27 +10145,27 @@
         <v>-16864.530409732404</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF(H12&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J12" s="25">
-        <f>$D$5*($B$30-B12)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-4987.4688000000006</v>
       </c>
       <c r="K12" s="4">
-        <f>-H12+J12</f>
+        <f t="shared" si="1"/>
         <v>11877.061609732404</v>
       </c>
       <c r="L12" s="16">
-        <f>B12</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2028</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P12" s="12">
@@ -10166,37 +10185,41 @@
         <v>-2025.3565757649687</v>
       </c>
       <c r="T12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-704.95687474079909</v>
       </c>
       <c r="U12" s="11">
+        <f t="shared" si="8"/>
+        <v>116.58426561620377</v>
+      </c>
+      <c r="V12" s="11">
         <f>SUM($T$5:T12)</f>
         <v>-14516.547026871312</v>
       </c>
-      <c r="V12" s="1" t="str">
-        <f>IF(U12&lt;0,"Yes","No")</f>
+      <c r="W12" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W12" s="52">
+      <c r="X12" s="52">
         <f>($D$5*($B$30-O12)/$B$30)*'PV Degrad. SPV SRECS'!H8</f>
         <v>-3316.9516044094562</v>
       </c>
-      <c r="X12" s="11">
-        <f>-U12+W12</f>
+      <c r="Y12" s="11">
+        <f t="shared" si="3"/>
         <v>11199.595422461856</v>
       </c>
-      <c r="Y12" s="16">
-        <f>O12</f>
+      <c r="Z12" s="16">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2029</v>
       </c>
       <c r="B13" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="C13" s="52">
@@ -10216,7 +10239,7 @@
         <v>-3480.7019317481904</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1221.0094421417934</v>
       </c>
       <c r="H13" s="11">
@@ -10224,27 +10247,27 @@
         <v>-18085.539851874197</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF(H13&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J13" s="25">
-        <f>$D$5*($B$30-B13)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-4710.387200000001</v>
       </c>
       <c r="K13" s="4">
-        <f>-H13+J13</f>
+        <f t="shared" si="1"/>
         <v>13375.152651874196</v>
       </c>
       <c r="L13" s="16">
-        <f>B13</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2029</v>
       </c>
       <c r="O13" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="P13" s="12">
@@ -10264,37 +10287,41 @@
         <v>-1863.8825313412342</v>
       </c>
       <c r="T13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-653.83885619523835</v>
       </c>
       <c r="U13" s="11">
+        <f t="shared" si="8"/>
+        <v>121.19995546231121</v>
+      </c>
+      <c r="V13" s="11">
         <f>SUM($T$5:T13)</f>
         <v>-15170.38588306655</v>
       </c>
-      <c r="V13" s="1" t="str">
-        <f>IF(U13&lt;0,"Yes","No")</f>
+      <c r="W13" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W13" s="52">
+      <c r="X13" s="52">
         <f>($D$5*($B$30-O13)/$B$30)*'PV Degrad. SPV SRECS'!H9</f>
         <v>-2955.3552030901869</v>
       </c>
-      <c r="X13" s="11">
-        <f>-U13+W13</f>
+      <c r="Y13" s="11">
+        <f t="shared" si="3"/>
         <v>12215.030679976364</v>
       </c>
-      <c r="Y13" s="16">
-        <f>O13</f>
+      <c r="Z13" s="16">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2030</v>
       </c>
       <c r="B14" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="C14" s="52">
@@ -10314,7 +10341,7 @@
         <v>-3463.29842208945</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1224.7747849676007</v>
       </c>
       <c r="H14" s="11">
@@ -10322,27 +10349,27 @@
         <v>-19310.314636841798</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF(H14&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J14" s="25">
-        <f>$D$5*($B$30-B14)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-4433.3056000000006</v>
       </c>
       <c r="K14" s="4">
-        <f>-H14+J14</f>
+        <f t="shared" si="1"/>
         <v>14877.009036841799</v>
       </c>
       <c r="L14" s="16">
-        <f>B14</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2030</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="P14" s="12">
@@ -10362,37 +10389,41 @@
         <v>-1715.2822037407768</v>
       </c>
       <c r="T14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-606.59929818519731</v>
       </c>
       <c r="U14" s="11">
+        <f t="shared" si="8"/>
+        <v>124.56939205777371</v>
+      </c>
+      <c r="V14" s="11">
         <f>SUM($T$5:T14)</f>
         <v>-15776.985181251748</v>
       </c>
-      <c r="V14" s="1" t="str">
-        <f>IF(U14&lt;0,"Yes","No")</f>
+      <c r="W14" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W14" s="52">
+      <c r="X14" s="52">
         <f>($D$5*($B$30-O14)/$B$30)*'PV Degrad. SPV SRECS'!H10</f>
         <v>-2624.066772999056</v>
       </c>
-      <c r="X14" s="11">
-        <f>-U14+W14</f>
+      <c r="Y14" s="11">
+        <f t="shared" si="3"/>
         <v>13152.918408252692</v>
       </c>
-      <c r="Y14" s="16">
-        <f>O14</f>
+      <c r="Z14" s="16">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2031</v>
       </c>
       <c r="B15" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="C15" s="52">
@@ -10412,7 +10443,7 @@
         <v>-3445.9819299790029</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1228.898464436927</v>
       </c>
       <c r="H15" s="11">
@@ -10420,27 +10451,27 @@
         <v>-20539.213101278725</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF(H15&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J15" s="25">
-        <f>$D$5*($B$30-B15)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-4156.2240000000002</v>
       </c>
       <c r="K15" s="4">
-        <f>-H15+J15</f>
+        <f t="shared" si="1"/>
         <v>16382.989101278725</v>
       </c>
       <c r="L15" s="16">
-        <f>B15</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2031</v>
       </c>
       <c r="O15" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="P15" s="12">
@@ -10460,37 +10491,41 @@
         <v>-1578.5292200537112</v>
       </c>
       <c r="T15" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-562.93160382435462</v>
       </c>
       <c r="U15" s="11">
+        <f t="shared" si="8"/>
+        <v>126.85017942373133</v>
+      </c>
+      <c r="V15" s="11">
         <f>SUM($T$5:T15)</f>
         <v>-16339.916785076102</v>
       </c>
-      <c r="V15" s="1" t="str">
-        <f>IF(U15&lt;0,"Yes","No")</f>
+      <c r="W15" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W15" s="52">
+      <c r="X15" s="52">
         <f>($D$5*($B$30-O15)/$B$30)*'PV Degrad. SPV SRECS'!H11</f>
         <v>-2320.8137732892587</v>
       </c>
-      <c r="X15" s="11">
-        <f>-U15+W15</f>
+      <c r="Y15" s="11">
+        <f t="shared" si="3"/>
         <v>14019.103011786843</v>
       </c>
-      <c r="Y15" s="16">
-        <f>O15</f>
+      <c r="Z15" s="16">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2032</v>
       </c>
       <c r="B16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="C16" s="52">
@@ -10509,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1502.9104103557361</v>
       </c>
       <c r="H16" s="11">
@@ -10517,27 +10552,27 @@
         <v>-22042.123511634461</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF(H16&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J16" s="25">
-        <f>$D$5*($B$30-B16)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-3879.1424000000006</v>
       </c>
       <c r="K16" s="4">
-        <f>-H16+J16</f>
+        <f t="shared" si="1"/>
         <v>18162.981111634461</v>
       </c>
       <c r="L16" s="16">
-        <f>B16</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2032</v>
       </c>
       <c r="O16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="P16" s="12">
@@ -10557,37 +10592,41 @@
         <v>0</v>
       </c>
       <c r="T16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-636.74667444174725</v>
       </c>
       <c r="U16" s="11">
+        <f t="shared" si="8"/>
+        <v>13.990856924371542</v>
+      </c>
+      <c r="V16" s="11">
         <f>SUM($T$5:T16)</f>
         <v>-16976.663459517851</v>
       </c>
-      <c r="V16" s="1" t="str">
-        <f>IF(U16&lt;0,"Yes","No")</f>
+      <c r="W16" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W16" s="52">
+      <c r="X16" s="52">
         <f>($D$5*($B$30-O16)/$B$30)*'PV Degrad. SPV SRECS'!H12</f>
         <v>-2043.4838255377122</v>
       </c>
-      <c r="X16" s="11">
-        <f>-U16+W16</f>
+      <c r="Y16" s="11">
+        <f t="shared" si="3"/>
         <v>14933.179633980139</v>
       </c>
-      <c r="Y16" s="16">
-        <f>O16</f>
+      <c r="Z16" s="16">
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2033</v>
       </c>
       <c r="B17" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="C17" s="52">
@@ -10606,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1524.9003626756778</v>
       </c>
       <c r="H17" s="11">
@@ -10614,27 +10653,27 @@
         <v>-23567.02387431014</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF(H17&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J17" s="25">
-        <f>$D$5*($B$30-B17)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-3602.0608000000007</v>
       </c>
       <c r="K17" s="4">
-        <f>-H17+J17</f>
+        <f t="shared" si="1"/>
         <v>19964.963074310141</v>
       </c>
       <c r="L17" s="16">
-        <f>B17</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2033</v>
       </c>
       <c r="O17" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="P17" s="12">
@@ -10654,37 +10693,41 @@
         <v>0</v>
       </c>
       <c r="T17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-597.54280769359582</v>
       </c>
       <c r="U17" s="11">
+        <f t="shared" si="8"/>
+        <v>16.360523783874555</v>
+      </c>
+      <c r="V17" s="11">
         <f>SUM($T$5:T17)</f>
         <v>-17574.206267211448</v>
       </c>
-      <c r="V17" s="1" t="str">
-        <f>IF(U17&lt;0,"Yes","No")</f>
+      <c r="W17" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W17" s="52">
+      <c r="X17" s="52">
         <f>($D$5*($B$30-O17)/$B$30)*'PV Degrad. SPV SRECS'!H13</f>
         <v>-1790.1138633416615</v>
       </c>
-      <c r="X17" s="11">
-        <f>-U17+W17</f>
+      <c r="Y17" s="11">
+        <f t="shared" si="3"/>
         <v>15784.092403869787</v>
       </c>
-      <c r="Y17" s="16">
-        <f>O17</f>
+      <c r="Z17" s="16">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2034</v>
       </c>
       <c r="B18" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="C18" s="52">
@@ -10703,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1547.1687489242752</v>
       </c>
       <c r="H18" s="11">
@@ -10711,27 +10754,27 @@
         <v>-25114.192623234416</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF(H18&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J18" s="25">
-        <f>$D$5*($B$30-B18)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-3324.9792000000002</v>
       </c>
       <c r="K18" s="4">
-        <f>-H18+J18</f>
+        <f t="shared" si="1"/>
         <v>21789.213423234414</v>
       </c>
       <c r="L18" s="16">
-        <f>B18</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2034</v>
       </c>
       <c r="O18" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="P18" s="12">
@@ -10751,37 +10794,41 @@
         <v>0</v>
       </c>
       <c r="T18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-560.73698635517621</v>
       </c>
       <c r="U18" s="11">
+        <f t="shared" si="8"/>
+        <v>18.417099944324036</v>
+      </c>
+      <c r="V18" s="11">
         <f>SUM($T$5:T18)</f>
         <v>-18134.943253566624</v>
       </c>
-      <c r="V18" s="1" t="str">
-        <f>IF(U18&lt;0,"Yes","No")</f>
+      <c r="W18" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W18" s="52">
+      <c r="X18" s="52">
         <f>($D$5*($B$30-O18)/$B$30)*'PV Degrad. SPV SRECS'!H14</f>
         <v>-1558.8799971044946</v>
       </c>
-      <c r="X18" s="11">
-        <f>-U18+W18</f>
+      <c r="Y18" s="11">
+        <f t="shared" si="3"/>
         <v>16576.06325646213</v>
       </c>
-      <c r="Y18" s="16">
-        <f>O18</f>
+      <c r="Z18" s="16">
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2035</v>
       </c>
       <c r="B19" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="C19" s="52">
@@ -10800,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1569.717910477746</v>
       </c>
       <c r="H19" s="11">
@@ -10808,27 +10855,27 @@
         <v>-26683.910533712162</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF(H19&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J19" s="25">
-        <f>$D$5*($B$30-B19)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-3047.8976000000002</v>
       </c>
       <c r="K19" s="4">
-        <f>-H19+J19</f>
+        <f t="shared" si="1"/>
         <v>23636.012933712162</v>
       </c>
       <c r="L19" s="16">
-        <f>B19</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2035</v>
       </c>
       <c r="O19" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="P19" s="12">
@@ -10848,37 +10895,41 @@
         <v>0</v>
       </c>
       <c r="T19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-526.18334227427704</v>
       </c>
       <c r="U19" s="11">
+        <f t="shared" si="8"/>
+        <v>20.188437253553388</v>
+      </c>
+      <c r="V19" s="11">
         <f>SUM($T$5:T19)</f>
         <v>-18661.126595840902</v>
       </c>
-      <c r="V19" s="1" t="str">
-        <f>IF(U19&lt;0,"Yes","No")</f>
+      <c r="W19" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W19" s="52">
+      <c r="X19" s="52">
         <f>($D$5*($B$30-O19)/$B$30)*'PV Degrad. SPV SRECS'!H15</f>
         <v>-1348.0880478104907</v>
       </c>
-      <c r="X19" s="11">
-        <f>-U19+W19</f>
+      <c r="Y19" s="11">
+        <f t="shared" si="3"/>
         <v>17313.03854803041</v>
       </c>
-      <c r="Y19" s="16">
-        <f>O19</f>
+      <c r="Z19" s="16">
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2036</v>
       </c>
       <c r="B20" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="C20" s="52">
@@ -10897,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1592.550170993786</v>
       </c>
       <c r="H20" s="11">
@@ -10905,27 +10956,27 @@
         <v>-28276.460704705947</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF(H20&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J20" s="25">
-        <f>$D$5*($B$30-B20)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-2770.8160000000003</v>
       </c>
       <c r="K20" s="4">
-        <f>-H20+J20</f>
+        <f t="shared" si="1"/>
         <v>25505.644704705948</v>
       </c>
       <c r="L20" s="16">
-        <f>B20</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2036</v>
       </c>
       <c r="O20" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="P20" s="12">
@@ -10945,37 +10996,41 @@
         <v>0</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-493.74483736764984</v>
       </c>
       <c r="U20" s="11">
+        <f t="shared" si="8"/>
+        <v>21.700237658605317</v>
+      </c>
+      <c r="V20" s="11">
         <f>SUM($T$5:T20)</f>
         <v>-19154.871433208551</v>
       </c>
-      <c r="V20" s="1" t="str">
-        <f>IF(U20&lt;0,"Yes","No")</f>
+      <c r="W20" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W20" s="52">
+      <c r="X20" s="52">
         <f>($D$5*($B$30-O20)/$B$30)*'PV Degrad. SPV SRECS'!H16</f>
         <v>-1156.1647065270072</v>
       </c>
-      <c r="X20" s="11">
-        <f>-U20+W20</f>
+      <c r="Y20" s="11">
+        <f t="shared" si="3"/>
         <v>17998.706726681543</v>
       </c>
-      <c r="Y20" s="16">
-        <f>O20</f>
+      <c r="Z20" s="16">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2037</v>
       </c>
       <c r="B21" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="C21" s="52">
@@ -10994,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1615.6678347662764</v>
       </c>
       <c r="H21" s="11">
@@ -11002,27 +11057,27 @@
         <v>-29892.128539472222</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF(H21&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J21" s="25">
-        <f>$D$5*($B$30-B21)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-2493.7344000000003</v>
       </c>
       <c r="K21" s="4">
-        <f>-H21+J21</f>
+        <f t="shared" si="1"/>
         <v>27398.394139472221</v>
       </c>
       <c r="L21" s="16">
-        <f>B21</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2037</v>
       </c>
       <c r="O21" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="P21" s="12">
@@ -11042,37 +11097,41 @@
         <v>0</v>
       </c>
       <c r="T21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-463.29273135024943</v>
       </c>
       <c r="U21" s="11">
+        <f t="shared" si="8"/>
+        <v>22.976207353764664</v>
+      </c>
+      <c r="V21" s="11">
         <f>SUM($T$5:T21)</f>
         <v>-19618.164164558799</v>
       </c>
-      <c r="V21" s="1" t="str">
-        <f>IF(U21&lt;0,"Yes","No")</f>
+      <c r="W21" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W21" s="52">
+      <c r="X21" s="52">
         <f>($D$5*($B$30-O21)/$B$30)*'PV Degrad. SPV SRECS'!H17</f>
         <v>-981.64927912670453</v>
       </c>
-      <c r="X21" s="11">
-        <f>-U21+W21</f>
+      <c r="Y21" s="11">
+        <f t="shared" si="3"/>
         <v>18636.514885432094</v>
       </c>
-      <c r="Y21" s="16">
-        <f>O21</f>
+      <c r="Z21" s="16">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2038</v>
       </c>
       <c r="B22" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="C22" s="52">
@@ -11091,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1639.0731850212692</v>
       </c>
       <c r="H22" s="11">
@@ -11099,27 +11158,27 @@
         <v>-31531.20172449349</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF(H22&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J22" s="25">
-        <f>$D$5*($B$30-B22)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-2216.6528000000003</v>
       </c>
       <c r="K22" s="4">
-        <f>-H22+J22</f>
+        <f t="shared" si="1"/>
         <v>29314.548924493491</v>
       </c>
       <c r="L22" s="16">
-        <f>B22</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2038</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="P22" s="12">
@@ -11139,37 +11198,41 @@
         <v>0</v>
       </c>
       <c r="T22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-434.70608143011674</v>
       </c>
       <c r="U22" s="11">
+        <f t="shared" si="8"/>
+        <v>24.038200366122908</v>
+      </c>
+      <c r="V22" s="11">
         <f>SUM($T$5:T22)</f>
         <v>-20052.870245988917</v>
       </c>
-      <c r="V22" s="1" t="str">
-        <f>IF(U22&lt;0,"Yes","No")</f>
+      <c r="W22" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W22" s="52">
+      <c r="X22" s="52">
         <f>($D$5*($B$30-O22)/$B$30)*'PV Degrad. SPV SRECS'!H18</f>
         <v>-823.18597830331601</v>
       </c>
-      <c r="X22" s="11">
-        <f>-U22+W22</f>
+      <c r="Y22" s="11">
+        <f t="shared" si="3"/>
         <v>19229.684267685603</v>
       </c>
-      <c r="Y22" s="16">
-        <f>O22</f>
+      <c r="Z22" s="16">
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2039</v>
       </c>
       <c r="B23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="C23" s="52">
@@ -11188,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1662.7684821525552</v>
       </c>
       <c r="H23" s="11">
@@ -11196,27 +11259,27 @@
         <v>-33193.970206646045</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF(H23&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J23" s="25">
-        <f>$D$5*($B$30-B23)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-1939.5712000000003</v>
       </c>
       <c r="K23" s="4">
-        <f>-H23+J23</f>
+        <f t="shared" si="1"/>
         <v>31254.399006646046</v>
       </c>
       <c r="L23" s="16">
-        <f>B23</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2039</v>
       </c>
       <c r="O23" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="P23" s="12">
@@ -11236,37 +11299,41 @@
         <v>0</v>
       </c>
       <c r="T23" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-407.87127205553395</v>
       </c>
       <c r="U23" s="11">
+        <f t="shared" si="8"/>
+        <v>24.906352280541171</v>
+      </c>
+      <c r="V23" s="11">
         <f>SUM($T$5:T23)</f>
         <v>-20460.741518044451</v>
       </c>
-      <c r="V23" s="1" t="str">
-        <f>IF(U23&lt;0,"Yes","No")</f>
+      <c r="W23" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W23" s="52">
+      <c r="X23" s="52">
         <f>($D$5*($B$30-O23)/$B$30)*'PV Degrad. SPV SRECS'!H19</f>
         <v>-679.51672737302033</v>
       </c>
-      <c r="X23" s="11">
-        <f>-U23+W23</f>
+      <c r="Y23" s="11">
+        <f t="shared" si="3"/>
         <v>19781.224790671433</v>
       </c>
-      <c r="Y23" s="16">
-        <f>O23</f>
+      <c r="Z23" s="16">
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2040</v>
       </c>
       <c r="B24" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="C24" s="52">
@@ -11285,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1686.7559618950836</v>
       </c>
       <c r="H24" s="11">
@@ -11293,27 +11360,27 @@
         <v>-34880.726168541129</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF(H24&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J24" s="25">
-        <f>$D$5*($B$30-B24)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-1662.4896000000001</v>
       </c>
       <c r="K24" s="4">
-        <f>-H24+J24</f>
+        <f t="shared" si="1"/>
         <v>33218.236568541128</v>
       </c>
       <c r="L24" s="16">
-        <f>B24</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2040</v>
       </c>
       <c r="O24" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="P24" s="12">
@@ -11333,37 +11400,41 @@
         <v>0</v>
       </c>
       <c r="T24" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-382.68157291528598</v>
       </c>
       <c r="U24" s="11">
+        <f t="shared" si="8"/>
+        <v>25.599204760256555</v>
+      </c>
+      <c r="V24" s="11">
         <f>SUM($T$5:T24)</f>
         <v>-20843.423090959739</v>
       </c>
-      <c r="V24" s="1" t="str">
-        <f>IF(U24&lt;0,"Yes","No")</f>
+      <c r="W24" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W24" s="52">
+      <c r="X24" s="52">
         <f>($D$5*($B$30-O24)/$B$30)*'PV Degrad. SPV SRECS'!H20</f>
         <v>-549.47444261969281</v>
       </c>
-      <c r="X24" s="11">
-        <f>-U24+W24</f>
+      <c r="Y24" s="11">
+        <f t="shared" si="3"/>
         <v>20293.948648340047</v>
       </c>
-      <c r="Y24" s="16">
-        <f>O24</f>
+      <c r="Z24" s="16">
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2041</v>
       </c>
       <c r="B25" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="C25" s="52">
@@ -11382,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1711.0378334344523</v>
       </c>
       <c r="H25" s="11">
@@ -11390,27 +11461,27 @@
         <v>-36591.764001975578</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF(H25&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J25" s="25">
-        <f>$D$5*($B$30-B25)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-1385.4080000000001</v>
       </c>
       <c r="K25" s="4">
-        <f>-H25+J25</f>
+        <f t="shared" si="1"/>
         <v>35206.356001975575</v>
       </c>
       <c r="L25" s="16">
-        <f>B25</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2041</v>
       </c>
       <c r="O25" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="P25" s="12">
@@ -11430,37 +11501,41 @@
         <v>0</v>
       </c>
       <c r="T25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-359.03672350024226</v>
       </c>
       <c r="U25" s="11">
+        <f t="shared" si="8"/>
+        <v>26.133821476684489</v>
+      </c>
+      <c r="V25" s="11">
         <f>SUM($T$5:T25)</f>
         <v>-21202.45981445998</v>
       </c>
-      <c r="V25" s="1" t="str">
-        <f>IF(U25&lt;0,"Yes","No")</f>
+      <c r="W25" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W25" s="52">
+      <c r="X25" s="52">
         <f>($D$5*($B$30-O25)/$B$30)*'PV Degrad. SPV SRECS'!H21</f>
         <v>-431.97676306579632</v>
       </c>
-      <c r="X25" s="11">
-        <f>-U25+W25</f>
+      <c r="Y25" s="11">
+        <f t="shared" si="3"/>
         <v>20770.483051394185</v>
       </c>
-      <c r="Y25" s="16">
-        <f>O25</f>
+      <c r="Z25" s="16">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2042</v>
       </c>
       <c r="B26" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="C26" s="52">
@@ -11479,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1735.6162774506379</v>
       </c>
       <c r="H26" s="11">
@@ -11487,27 +11562,27 @@
         <v>-38327.380279426216</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF(H26&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J26" s="25">
-        <f>$D$5*($B$30-B26)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-1108.3264000000001</v>
       </c>
       <c r="K26" s="4">
-        <f>-H26+J26</f>
+        <f t="shared" si="1"/>
         <v>37219.053879426217</v>
       </c>
       <c r="L26" s="16">
-        <f>B26</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2042</v>
       </c>
       <c r="O26" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="P26" s="12">
@@ -11527,37 +11602,41 @@
         <v>0</v>
       </c>
       <c r="T26" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-336.84254263548206</v>
       </c>
       <c r="U26" s="11">
+        <f t="shared" si="8"/>
+        <v>26.525896021996004</v>
+      </c>
+      <c r="V26" s="11">
         <f>SUM($T$5:T26)</f>
         <v>-21539.302357095461</v>
       </c>
-      <c r="V26" s="1" t="str">
-        <f>IF(U26&lt;0,"Yes","No")</f>
+      <c r="W26" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W26" s="52">
+      <c r="X26" s="52">
         <f>($D$5*($B$30-O26)/$B$30)*'PV Degrad. SPV SRECS'!H22</f>
         <v>-326.02019854022353</v>
       </c>
-      <c r="X26" s="11">
-        <f>-U26+W26</f>
+      <c r="Y26" s="11">
+        <f t="shared" si="3"/>
         <v>21213.282158555237</v>
       </c>
-      <c r="Y26" s="16">
-        <f>O26</f>
+      <c r="Z26" s="16">
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2043</v>
       </c>
       <c r="B27" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="C27" s="52">
@@ -11576,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1760.493444094097</v>
       </c>
       <c r="H27" s="11">
@@ -11584,27 +11663,27 @@
         <v>-40087.873723520315</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF(H27&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J27" s="25">
-        <f>$D$5*($B$30-B27)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-831.24480000000005</v>
       </c>
       <c r="K27" s="4">
-        <f>-H27+J27</f>
+        <f t="shared" si="1"/>
         <v>39256.628923520315</v>
       </c>
       <c r="L27" s="16">
-        <f>B27</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2043</v>
       </c>
       <c r="O27" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="P27" s="12">
@@ -11624,37 +11703,41 @@
         <v>0</v>
       </c>
       <c r="T27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-316.01056148716611</v>
       </c>
       <c r="U27" s="11">
+        <f t="shared" si="8"/>
+        <v>26.789852340643336</v>
+      </c>
+      <c r="V27" s="11">
         <f>SUM($T$5:T27)</f>
         <v>-21855.312918582626</v>
       </c>
-      <c r="V27" s="1" t="str">
-        <f>IF(U27&lt;0,"Yes","No")</f>
+      <c r="W27" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W27" s="52">
+      <c r="X27" s="52">
         <f>($D$5*($B$30-O27)/$B$30)*'PV Degrad. SPV SRECS'!H23</f>
         <v>-230.67466877846002</v>
       </c>
-      <c r="X27" s="11">
-        <f>-U27+W27</f>
+      <c r="Y27" s="11">
+        <f t="shared" si="3"/>
         <v>21624.638249804164</v>
       </c>
-      <c r="Y27" s="16">
-        <f>O27</f>
+      <c r="Z27" s="16">
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2044</v>
       </c>
       <c r="B28" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="C28" s="52">
@@ -11673,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1785.6714508923142</v>
       </c>
       <c r="H28" s="11">
@@ -11681,27 +11764,27 @@
         <v>-41873.545174412633</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF(H28&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J28" s="25">
-        <f>$D$5*($B$30-B28)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-554.16320000000007</v>
       </c>
       <c r="K28" s="4">
-        <f>-H28+J28</f>
+        <f t="shared" si="1"/>
         <v>41319.38197441263</v>
       </c>
       <c r="L28" s="16">
-        <f>B28</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2044</v>
       </c>
       <c r="O28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="P28" s="12">
@@ -11721,37 +11804,41 @@
         <v>0</v>
       </c>
       <c r="T28" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-296.4576786376914</v>
       </c>
       <c r="U28" s="11">
+        <f t="shared" si="8"/>
+        <v>26.938938180996729</v>
+      </c>
+      <c r="V28" s="11">
         <f>SUM($T$5:T28)</f>
         <v>-22151.770597220318</v>
       </c>
-      <c r="V28" s="1" t="str">
-        <f>IF(U28&lt;0,"Yes","No")</f>
+      <c r="W28" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W28" s="52">
+      <c r="X28" s="52">
         <f>($D$5*($B$30-O28)/$B$30)*'PV Degrad. SPV SRECS'!H24</f>
         <v>-145.07840803676731</v>
       </c>
-      <c r="X28" s="11">
-        <f>-U28+W28</f>
+      <c r="Y28" s="11">
+        <f t="shared" si="3"/>
         <v>22006.692189183552</v>
       </c>
-      <c r="Y28" s="16">
-        <f>O28</f>
+      <c r="Z28" s="16">
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2045</v>
       </c>
       <c r="B29" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="C29" s="52">
@@ -11770,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1811.1523805848224</v>
       </c>
       <c r="H29" s="11">
@@ -11778,27 +11865,27 @@
         <v>-43684.697554997452</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF(H29&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J29" s="25">
-        <f>$D$5*($B$30-B29)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>-277.08160000000004</v>
       </c>
       <c r="K29" s="4">
-        <f>-H29+J29</f>
+        <f t="shared" si="1"/>
         <v>43407.615954997455</v>
       </c>
       <c r="L29" s="16">
-        <f>B29</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2045</v>
       </c>
       <c r="O29" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="P29" s="12">
@@ -11818,37 +11905,41 @@
         <v>0</v>
       </c>
       <c r="T29" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-278.10583590667454</v>
       </c>
       <c r="U29" s="11">
+        <f t="shared" si="8"/>
+        <v>26.985312035483958</v>
+      </c>
+      <c r="V29" s="11">
         <f>SUM($T$5:T29)</f>
         <v>-22429.876433126992</v>
       </c>
-      <c r="V29" s="1" t="str">
-        <f>IF(U29&lt;0,"Yes","No")</f>
+      <c r="W29" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W29" s="52">
+      <c r="X29" s="52">
         <f>($D$5*($B$30-O29)/$B$30)*'PV Degrad. SPV SRECS'!H25</f>
         <v>-68.433211338097792</v>
       </c>
-      <c r="X29" s="11">
-        <f>-U29+W29</f>
+      <c r="Y29" s="11">
+        <f t="shared" si="3"/>
         <v>22361.443221788893</v>
       </c>
-      <c r="Y29" s="16">
-        <f>O29</f>
+      <c r="Z29" s="16">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2046</v>
       </c>
       <c r="B30" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="C30" s="52">
@@ -11867,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1836.9382788846742</v>
       </c>
       <c r="H30" s="11">
@@ -11875,27 +11966,27 @@
         <v>-45521.63583388213</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>IF(H30&lt;0,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="J30" s="25">
-        <f>$D$5*($B$30-B30)/$B$30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="4">
-        <f>-H30+J30</f>
+        <f t="shared" si="1"/>
         <v>45521.63583388213</v>
       </c>
       <c r="L30" s="16">
-        <f>B30</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2046</v>
       </c>
       <c r="O30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="P30" s="12">
@@ -11915,31 +12006,35 @@
         <v>0</v>
       </c>
       <c r="T30" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-260.88171367431357</v>
       </c>
       <c r="U30" s="11">
+        <f t="shared" si="8"/>
+        <v>26.940124006967949</v>
+      </c>
+      <c r="V30" s="11">
         <f>SUM($T$5:T30)</f>
         <v>-22690.758146801305</v>
       </c>
-      <c r="V30" s="1" t="str">
-        <f>IF(U30&lt;0,"Yes","No")</f>
+      <c r="W30" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="W30" s="52">
+      <c r="X30" s="52">
         <f>($D$5*($B$30-O30)/$B$30)*'PV Degrad. SPV SRECS'!H26</f>
         <v>0</v>
       </c>
-      <c r="X30" s="11">
-        <f>-U30+W30</f>
+      <c r="Y30" s="11">
+        <f t="shared" si="3"/>
         <v>22690.758146801305</v>
       </c>
-      <c r="Y30" s="16">
-        <f>O30</f>
+      <c r="Z30" s="16">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="P31" s="8" t="s">
@@ -11956,26 +12051,31 @@
         <f>SUM(P5:P30)+SUM(R5:R30)+SUM(S5:S30)</f>
         <v>-40445.71978077494</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="W32" s="8" t="s">
+      <c r="U31" s="10">
+        <f>SUM(U5:U30)</f>
+        <v>-6899.5534807050608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X32" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y32" s="10">
+        <f>U31</f>
+        <v>-6899.5534807050608</v>
+      </c>
+    </row>
+    <row r="33" spans="4:44" x14ac:dyDescent="0.25">
+      <c r="X33" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="X32" s="10">
-        <f>X30</f>
+      <c r="Y33" s="10">
+        <f>Y30</f>
         <v>22690.758146801305</v>
       </c>
-    </row>
-    <row r="33" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W33" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="X33" s="21">
-        <f>-S31/Q31</f>
-        <v>2.2779953353085918</v>
-      </c>
-    </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="Z33" s="9"/>
+    </row>
+    <row r="34" spans="4:44" x14ac:dyDescent="0.25">
       <c r="D34" s="8" t="s">
         <v>113</v>
       </c>
@@ -11987,96 +12087,133 @@
         <f>56198.84/25107</f>
         <v>2.2383733620105946</v>
       </c>
-      <c r="W34" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="X34" s="53">
-        <f>(1+'User Inputs - EX 1'!$B$20)*X33^(1/$O$30)-1</f>
-        <v>9.5488892522140656E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="X34" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y34" s="21">
+        <f>-S31/Q31</f>
+        <v>2.2779953353085918</v>
+      </c>
+    </row>
+    <row r="35" spans="4:44" x14ac:dyDescent="0.25">
       <c r="G35" s="46">
         <f>(1+'User Inputs - EX 2'!B23)*(G34)^(1/25)-1</f>
         <v>0.1166146928799654</v>
       </c>
-      <c r="W35" s="8" t="s">
+      <c r="X35" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y35" s="53">
+        <f>(1+'User Inputs - EX 1'!$B$20)*Y34^(1/$O$30)-1</f>
+        <v>9.5488892522140656E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:44" x14ac:dyDescent="0.25">
+      <c r="X36" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="X35" s="10">
+      <c r="Y36" s="10">
         <f>Q31</f>
         <v>17754.961633973628</v>
       </c>
     </row>
-    <row r="36" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W36" s="8" t="s">
+    <row r="37" spans="4:44" x14ac:dyDescent="0.25">
+      <c r="X37" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="X36" s="10">
+      <c r="Y37" s="10">
         <f>S31</f>
         <v>-40445.71978077494</v>
       </c>
     </row>
-    <row r="37" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W37" s="8" t="s">
+    <row r="38" spans="4:44" x14ac:dyDescent="0.25">
+      <c r="X38" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="X37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W38" s="8" t="s">
+      <c r="Y38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:44" x14ac:dyDescent="0.25">
+      <c r="X39" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="X38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W39" s="8" t="s">
+      <c r="Y39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:44" x14ac:dyDescent="0.25">
+      <c r="X40" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="X39" s="8">
+      <c r="Y40" s="8">
         <f>SUM('Electricity Costs'!P5:P29)</f>
         <v>7950.0000000000091</v>
       </c>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W40" s="8" t="s">
+    <row r="41" spans="4:44" x14ac:dyDescent="0.25">
+      <c r="X41" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="X40" s="8">
-        <f>X39-'Electricity Costs'!C30</f>
+      <c r="Y41" s="8">
+        <f>Y40-'Electricity Costs'!C30</f>
         <v>-242050</v>
       </c>
     </row>
-    <row r="41" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W41" s="8" t="s">
+    <row r="42" spans="4:44" x14ac:dyDescent="0.25">
+      <c r="X42" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="X41" s="21">
-        <f>X32/X40</f>
+      <c r="Y42" s="21">
+        <f>Y33/Y41</f>
         <v>-9.374409480190582E-2</v>
       </c>
     </row>
-    <row r="42" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W42" s="8" t="s">
+    <row r="43" spans="4:44" x14ac:dyDescent="0.25">
+      <c r="X43" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="X42" s="21">
-        <f>X41*'Electricity Costs'!C30*0.01</f>
+      <c r="Y43" s="21">
+        <f>Y42*'Electricity Costs'!C30*0.01</f>
         <v>-234.36023700476454</v>
       </c>
     </row>
-    <row r="43" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="W43" s="8" t="s">
+    <row r="44" spans="4:44" x14ac:dyDescent="0.25">
+      <c r="X44" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="X43" s="51">
-        <f>(X41*X32)/('Electricity Costs'!C30*0.01)</f>
+      <c r="Y44" s="51">
+        <f>(Y42*Y33)/('Electricity Costs'!C30*0.01)</f>
         <v>-0.85084983313634333</v>
       </c>
+    </row>
+    <row r="47" spans="4:44" x14ac:dyDescent="0.25">
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="24"/>
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24"/>
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="24"/>
+      <c r="AI47" s="24"/>
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="24"/>
+      <c r="AL47" s="24"/>
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="24"/>
+      <c r="AP47" s="24"/>
+      <c r="AQ47" s="24"/>
+      <c r="AR47" s="24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I6:I30">
@@ -12094,9 +12231,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V6:V30">
+  <conditionalFormatting sqref="W6:W30">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",V6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Yes",W6)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -12110,5 +12247,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>